--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_SOx.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.000497410830462916</v>
+        <v>0.002204739897186978</v>
       </c>
       <c r="C2">
-        <v>8.741249999999999E-05</v>
+        <v>0.0003874500000000001</v>
       </c>
       <c r="D2">
-        <v>3.186149567657524E-05</v>
+        <v>0.0001412239267826578</v>
       </c>
       <c r="E2">
-        <v>1.243861235362296E-05</v>
+        <v>5.513330881065314E-05</v>
       </c>
       <c r="F2">
-        <v>8.045038395366861E-05</v>
+        <v>0.0003565908910378824</v>
       </c>
       <c r="G2">
-        <v>2.224845731849816E-05</v>
+        <v>9.861478379009995E-05</v>
       </c>
       <c r="H2">
-        <v>1.062740290874221E-06</v>
+        <v>4.710524532523574E-06</v>
       </c>
       <c r="I2">
-        <v>0.000732885020056155</v>
+        <v>0.003248463332140795</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,25 +467,25 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.0005715590287927913</v>
+        <v>0.002533396776270753</v>
       </c>
       <c r="C3">
-        <v>0.0001040625</v>
+        <v>0.00046125</v>
       </c>
       <c r="D3">
-        <v>2.124099711771684E-05</v>
+        <v>9.414928452177198E-05</v>
       </c>
       <c r="E3">
-        <v>7.107778487784549E-06</v>
+        <v>3.150474789180178E-05</v>
       </c>
       <c r="F3">
-        <v>0.0001009286635055115</v>
+        <v>0.000447359481483889</v>
       </c>
       <c r="G3">
-        <v>3.448510884367215E-05</v>
+        <v>0.0001528529148746549</v>
       </c>
       <c r="I3">
-        <v>0.0008393840767474763</v>
+        <v>0.003720513205042871</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -493,28 +493,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.0004657433707595317</v>
+        <v>0.002064376021744951</v>
       </c>
       <c r="C4">
-        <v>7.492500000000001E-05</v>
+        <v>0.0003321</v>
       </c>
       <c r="D4">
-        <v>1.681578938485915E-05</v>
+        <v>7.45348502464028E-05</v>
       </c>
       <c r="E4">
-        <v>1.199437619813642E-05</v>
+        <v>5.316426206741549E-05</v>
       </c>
       <c r="F4">
-        <v>7.898764969996548E-05</v>
+        <v>0.0003501074202917389</v>
       </c>
       <c r="G4">
-        <v>2.280466875146062E-05</v>
+        <v>0.0001010801533848524</v>
       </c>
       <c r="H4">
-        <v>1.062740290874221E-06</v>
+        <v>4.710524532523574E-06</v>
       </c>
       <c r="I4">
-        <v>0.0006723335950848276</v>
+        <v>0.002980073232267884</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,28 +522,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.0005329401754959813</v>
+        <v>0.00236222131841462</v>
       </c>
       <c r="C5">
-        <v>9.990000000000003E-05</v>
+        <v>0.0004428</v>
       </c>
       <c r="D5">
-        <v>2.56662048505745E-05</v>
+        <v>0.0001137637187971411</v>
       </c>
       <c r="E5">
-        <v>7.996250798757619E-06</v>
+        <v>3.544284137827701E-05</v>
       </c>
       <c r="F5">
-        <v>7.679354831941091E-05</v>
+        <v>0.000340382214172524</v>
       </c>
       <c r="G5">
-        <v>1.613013155591117E-05</v>
+        <v>7.149571824782247E-05</v>
       </c>
       <c r="H5">
-        <v>2.125480581748442E-06</v>
+        <v>9.421049065047147E-06</v>
       </c>
       <c r="I5">
-        <v>0.000761551791602384</v>
+        <v>0.003375526860075431</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -551,28 +551,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.0005066793552541502</v>
+        <v>0.00224582200707245</v>
       </c>
       <c r="C6">
-        <v>0.0001373625</v>
+        <v>0.0006088500000000001</v>
       </c>
       <c r="D6">
-        <v>2.124099711771684E-05</v>
+        <v>9.414928452177198E-05</v>
       </c>
       <c r="E6">
-        <v>7.552014643271082E-06</v>
+        <v>3.347379463503939E-05</v>
       </c>
       <c r="F6">
-        <v>7.606218119255937E-05</v>
+        <v>0.0003371404787994524</v>
       </c>
       <c r="G6">
-        <v>2.16922458855357E-05</v>
+        <v>9.614941419534746E-05</v>
       </c>
       <c r="H6">
-        <v>5.313701454371105E-07</v>
+        <v>2.355262266261787E-06</v>
       </c>
       <c r="I6">
-        <v>0.0007711206642386702</v>
+        <v>0.003417940241490323</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -580,28 +580,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.0004966384533969796</v>
+        <v>0.002201316388029856</v>
       </c>
       <c r="C7">
-        <v>7.908750000000002E-05</v>
+        <v>0.00035055</v>
       </c>
       <c r="D7">
-        <v>1.681578938485915E-05</v>
+        <v>7.45348502464028E-05</v>
       </c>
       <c r="E7">
-        <v>1.021743157619029E-05</v>
+        <v>4.528807509446506E-05</v>
       </c>
       <c r="F7">
-        <v>8.556995384162929E-05</v>
+        <v>0.0003792830386493839</v>
       </c>
       <c r="G7">
-        <v>2.002361158664834E-05</v>
+        <v>8.875330541108991E-05</v>
       </c>
       <c r="H7">
-        <v>4.782331308933994E-06</v>
+        <v>2.119736039635608E-05</v>
       </c>
       <c r="I7">
-        <v>0.0007131350710952406</v>
+        <v>0.003160923017827554</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -609,28 +609,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.000478873780880447</v>
+        <v>0.002122575677416034</v>
       </c>
       <c r="C8">
-        <v>0.0001207125</v>
+        <v>0.00053505</v>
       </c>
       <c r="D8">
-        <v>1.770083093143071E-05</v>
+        <v>7.845773710147655E-05</v>
       </c>
       <c r="E8">
-        <v>8.884723109730685E-06</v>
+        <v>3.938093486475223E-05</v>
       </c>
       <c r="F8">
-        <v>8.118175108052009E-05</v>
+        <v>0.000359832626410954</v>
       </c>
       <c r="G8">
-        <v>1.668634298887362E-05</v>
+        <v>7.396108784257492E-05</v>
       </c>
       <c r="H8">
-        <v>1.594110436311331E-06</v>
+        <v>7.06578679878536E-06</v>
       </c>
       <c r="I8">
-        <v>0.0007256340394273135</v>
+        <v>0.003216323850434577</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -638,28 +638,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>0.0005368020608256625</v>
+        <v>0.002379338864200233</v>
       </c>
       <c r="C9">
-        <v>6.660000000000002E-05</v>
+        <v>0.0002952</v>
       </c>
       <c r="D9">
-        <v>3.540166186286141E-05</v>
+        <v>0.0001569154742029531</v>
       </c>
       <c r="E9">
-        <v>1.066166773167682E-05</v>
+        <v>4.725712183770267E-05</v>
       </c>
       <c r="F9">
-        <v>7.971901682681705E-05</v>
+        <v>0.0003533491556648107</v>
       </c>
       <c r="G9">
-        <v>1.223665152517399E-05</v>
+        <v>5.423813108455498E-05</v>
       </c>
       <c r="H9">
-        <v>1.594110436311331E-06</v>
+        <v>7.06578679878536E-06</v>
       </c>
       <c r="I9">
-        <v>0.0007430151692085031</v>
+        <v>0.003293364533789039</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>0.0006534309977820295</v>
+        <v>0.002896288746925752</v>
       </c>
       <c r="C10">
-        <v>9.990000000000003E-05</v>
+        <v>0.0004428</v>
       </c>
       <c r="D10">
-        <v>2.212603866428838E-05</v>
+        <v>9.807217137684573E-05</v>
       </c>
       <c r="E10">
-        <v>9.773195420703756E-06</v>
+        <v>4.331902835122744E-05</v>
       </c>
       <c r="F10">
-        <v>6.94798770508956E-05</v>
+        <v>0.0003079648604418075</v>
       </c>
       <c r="G10">
-        <v>8.899382927399266E-06</v>
+        <v>3.944591351603998E-05</v>
       </c>
       <c r="H10">
-        <v>5.313701454371105E-07</v>
+        <v>2.355262266261787E-06</v>
       </c>
       <c r="I10">
-        <v>0.0008641408619907535</v>
+        <v>0.003830245982877936</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>0.0006379834564633053</v>
+        <v>0.002827818563783298</v>
       </c>
       <c r="C11">
-        <v>2.91375E-05</v>
+        <v>0.00012915</v>
       </c>
       <c r="D11">
-        <v>2.389612175743144E-05</v>
+        <v>0.0001059179450869935</v>
       </c>
       <c r="E11">
-        <v>1.155014004264989E-05</v>
+        <v>5.119521532417789E-05</v>
       </c>
       <c r="F11">
-        <v>3.656835634257665E-05</v>
+        <v>0.0001620867686535829</v>
       </c>
       <c r="G11">
-        <v>5.56211432962454E-06</v>
+        <v>2.465369594752499E-05</v>
       </c>
       <c r="H11">
-        <v>1.062740290874221E-06</v>
+        <v>4.710524532523574E-06</v>
       </c>
       <c r="I11">
-        <v>0.0007457604292264619</v>
+        <v>0.003305532713328101</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>0.000562290504001557</v>
+        <v>0.002492314666385279</v>
       </c>
       <c r="C12">
-        <v>4.995000000000001E-05</v>
+        <v>0.0002214</v>
       </c>
       <c r="D12">
-        <v>1.681578938485915E-05</v>
+        <v>7.45348502464028E-05</v>
       </c>
       <c r="E12">
-        <v>1.55482654420287E-05</v>
+        <v>6.89166360133164E-05</v>
       </c>
       <c r="F12">
-        <v>2.632921656665517E-05</v>
+        <v>0.0001167024734305797</v>
       </c>
       <c r="G12">
-        <v>9.455594360361721E-06</v>
+        <v>4.191128311079249E-05</v>
       </c>
       <c r="H12">
-        <v>1.062740290874221E-06</v>
+        <v>4.710524532523574E-06</v>
       </c>
       <c r="I12">
-        <v>0.0006814521100463359</v>
+        <v>0.003020490433718894</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.0004417996817155091</v>
+        <v>0.00195824723787415</v>
       </c>
       <c r="C13">
-        <v>2.497500000000001E-05</v>
+        <v>0.0001107</v>
       </c>
       <c r="D13">
-        <v>1.327562319857302E-05</v>
+        <v>5.884330282610746E-05</v>
       </c>
       <c r="E13">
-        <v>1.243861235362296E-05</v>
+        <v>5.513330881065314E-05</v>
       </c>
       <c r="F13">
-        <v>2.340374805924905E-05</v>
+        <v>0.0001037355319382931</v>
       </c>
       <c r="G13">
-        <v>5.005902896662084E-06</v>
+        <v>2.218832635277248E-05</v>
       </c>
       <c r="H13">
-        <v>5.313701454371105E-07</v>
+        <v>2.355262266261787E-06</v>
       </c>
       <c r="I13">
-        <v>0.0005214299383690533</v>
+        <v>0.002311202970068238</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.0003467973026053559</v>
+        <v>0.001537155611548064</v>
       </c>
       <c r="C14">
-        <v>3.74625E-05</v>
+        <v>0.00016605</v>
       </c>
       <c r="D14">
-        <v>1.239058165200148E-05</v>
+        <v>5.492041597103361E-05</v>
       </c>
       <c r="E14">
-        <v>1.42155569755691E-05</v>
+        <v>6.300949578360356E-05</v>
       </c>
       <c r="F14">
-        <v>1.535870966388218E-05</v>
+        <v>6.807644283450483E-05</v>
       </c>
       <c r="G14">
-        <v>3.337268597774725E-06</v>
+        <v>1.4792217568515E-05</v>
       </c>
       <c r="I14">
-        <v>0.0004295619194945834</v>
+        <v>0.001904004183705722</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,28 +809,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.0002278512344511805</v>
+        <v>0.001009935201351178</v>
       </c>
       <c r="C15">
-        <v>1.665E-05</v>
+        <v>7.38E-05</v>
       </c>
       <c r="D15">
-        <v>5.310249279429211E-06</v>
+        <v>2.3537321130443E-05</v>
       </c>
       <c r="E15">
-        <v>7.996250798757619E-06</v>
+        <v>3.544284137827701E-05</v>
       </c>
       <c r="F15">
-        <v>1.097050690277299E-05</v>
+        <v>4.862603059607488E-05</v>
       </c>
       <c r="G15">
-        <v>3.893480030737178E-06</v>
+        <v>1.725758716326749E-05</v>
       </c>
       <c r="H15">
-        <v>5.313701454371105E-07</v>
+        <v>2.355262266261787E-06</v>
       </c>
       <c r="I15">
-        <v>0.0002732030916083146</v>
+        <v>0.001210954243885502</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,25 +838,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.0001181736910882393</v>
+        <v>0.0005237969010397634</v>
       </c>
       <c r="C16">
-        <v>4.57875E-05</v>
+        <v>0.00020295</v>
       </c>
       <c r="D16">
-        <v>7.080332372572278E-06</v>
+        <v>3.138309484059063E-05</v>
       </c>
       <c r="E16">
-        <v>3.553889243892275E-06</v>
+        <v>1.575237394590089E-05</v>
       </c>
       <c r="F16">
-        <v>1.316460828332758E-05</v>
+        <v>5.835123671528986E-05</v>
       </c>
       <c r="G16">
-        <v>2.78105716481227E-06</v>
+        <v>1.232684797376249E-05</v>
       </c>
       <c r="I16">
-        <v>0.0001905410781528437</v>
+        <v>0.0008445604545153073</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -864,22 +864,22 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>8.109959192330156E-05</v>
+        <v>0.0003594684614978768</v>
       </c>
       <c r="C17">
-        <v>2.08125E-05</v>
+        <v>9.225000000000001E-05</v>
       </c>
       <c r="D17">
-        <v>1.77008309314307E-06</v>
+        <v>7.845773710147657E-06</v>
       </c>
       <c r="F17">
-        <v>6.582304141663792E-06</v>
+        <v>2.917561835764493E-05</v>
       </c>
       <c r="G17">
-        <v>2.78105716481227E-06</v>
+        <v>1.232684797376249E-05</v>
       </c>
       <c r="I17">
-        <v>0.0001130455363229207</v>
+        <v>0.0005010667015394319</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,28 +887,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>6.565205060457744E-05</v>
+        <v>0.0002909982783554241</v>
       </c>
       <c r="C18">
-        <v>4.1625E-05</v>
+        <v>0.0001845</v>
       </c>
       <c r="D18">
-        <v>3.540166186286139E-06</v>
+        <v>1.569154742029531E-05</v>
       </c>
       <c r="E18">
-        <v>4.442361554865343E-07</v>
+        <v>1.969046743237611E-06</v>
       </c>
       <c r="F18">
-        <v>8.776405522218395E-06</v>
+        <v>3.89008244768599E-05</v>
       </c>
       <c r="G18">
-        <v>2.224845731849817E-06</v>
+        <v>9.861478379009995E-06</v>
       </c>
       <c r="H18">
-        <v>1.062740290874221E-06</v>
+        <v>4.710524532523574E-06</v>
       </c>
       <c r="I18">
-        <v>0.0001233254444912925</v>
+        <v>0.0005466316999073505</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,22 +916,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>3.630172209900164E-05</v>
+        <v>0.000160904930384764</v>
       </c>
       <c r="C19">
-        <v>1.24875E-05</v>
+        <v>5.535E-05</v>
       </c>
       <c r="D19">
-        <v>3.540166186286139E-06</v>
+        <v>1.569154742029531E-05</v>
       </c>
       <c r="F19">
-        <v>9.507772649069922E-06</v>
+        <v>4.214255984993155E-05</v>
       </c>
       <c r="G19">
-        <v>3.893480030737178E-06</v>
+        <v>1.725758716326749E-05</v>
       </c>
       <c r="I19">
-        <v>6.573064096509488E-05</v>
+        <v>0.0002913466248182584</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -939,25 +939,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>3.552934503306544E-05</v>
+        <v>0.0001574814212276413</v>
       </c>
       <c r="C20">
-        <v>1.24875E-05</v>
+        <v>5.535E-05</v>
       </c>
       <c r="D20">
-        <v>2.655124639714606E-06</v>
+        <v>1.17686605652215E-05</v>
       </c>
       <c r="E20">
-        <v>1.776944621946137E-06</v>
+        <v>7.876186972950445E-06</v>
       </c>
       <c r="F20">
-        <v>5.850937014812262E-06</v>
+        <v>2.593388298457327E-05</v>
       </c>
       <c r="G20">
-        <v>1.112422865924908E-06</v>
+        <v>4.930739189504997E-06</v>
       </c>
       <c r="I20">
-        <v>5.941227417546336E-05</v>
+        <v>0.0002633408909398916</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,25 +965,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>9.268524791234454E-05</v>
+        <v>0.0004108210988547163</v>
       </c>
       <c r="C21">
-        <v>4.162500000000001E-06</v>
+        <v>1.845E-05</v>
       </c>
       <c r="D21">
-        <v>3.540166186286139E-06</v>
+        <v>1.569154742029531E-05</v>
       </c>
       <c r="E21">
-        <v>8.884723109730687E-07</v>
+        <v>3.938093486475223E-06</v>
       </c>
       <c r="F21">
-        <v>9.507772649069922E-06</v>
+        <v>4.214255984993155E-05</v>
       </c>
       <c r="G21">
-        <v>1.112422865924908E-06</v>
+        <v>4.930739189504997E-06</v>
       </c>
       <c r="I21">
-        <v>0.0001118965819245986</v>
+        <v>0.0004959740388009233</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -991,25 +991,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.0002672424648139268</v>
+        <v>0.001184534168364432</v>
       </c>
       <c r="C22">
-        <v>3.330000000000001E-05</v>
+        <v>0.0001476</v>
       </c>
       <c r="D22">
-        <v>1.327562319857302E-05</v>
+        <v>5.884330282610746E-05</v>
       </c>
       <c r="E22">
-        <v>3.998125399378809E-06</v>
+        <v>1.772142068913851E-05</v>
       </c>
       <c r="F22">
-        <v>3.071741932776436E-05</v>
+        <v>0.0001361528856690097</v>
       </c>
       <c r="G22">
-        <v>8.899382927399266E-06</v>
+        <v>3.944591351603998E-05</v>
       </c>
       <c r="I22">
-        <v>0.0003574330156670423</v>
+        <v>0.001584297691064728</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.0004232626321330401</v>
+        <v>0.001876083018103205</v>
       </c>
       <c r="C23">
-        <v>5.827500000000001E-05</v>
+        <v>0.0002583000000000001</v>
       </c>
       <c r="D23">
-        <v>1.416066474514456E-05</v>
+        <v>6.276618968118126E-05</v>
       </c>
       <c r="E23">
-        <v>1.55482654420287E-05</v>
+        <v>6.89166360133164E-05</v>
       </c>
       <c r="F23">
-        <v>5.485253451386493E-05</v>
+        <v>0.0002431301529803744</v>
       </c>
       <c r="G23">
-        <v>1.835497728776098E-05</v>
+        <v>8.135719662683248E-05</v>
       </c>
       <c r="H23">
-        <v>2.656850727185553E-06</v>
+        <v>1.177631133130893E-05</v>
       </c>
       <c r="I23">
-        <v>0.0005871109248490248</v>
+        <v>0.002602329504736218</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>0.0005576562416059399</v>
+        <v>0.002471773611442543</v>
       </c>
       <c r="C24">
-        <v>3.74625E-05</v>
+        <v>0.00016605</v>
       </c>
       <c r="D24">
-        <v>2.212603866428838E-05</v>
+        <v>9.807217137684573E-05</v>
       </c>
       <c r="E24">
-        <v>1.68809739084883E-05</v>
+        <v>7.482377624302922E-05</v>
       </c>
       <c r="F24">
-        <v>5.997210440182565E-05</v>
+        <v>0.0002658223005918758</v>
       </c>
       <c r="G24">
-        <v>1.112422865924908E-05</v>
+        <v>4.930739189504997E-05</v>
       </c>
       <c r="H24">
-        <v>1.062740290874221E-06</v>
+        <v>4.710524532523574E-06</v>
       </c>
       <c r="I24">
-        <v>0.0007062848275306655</v>
+        <v>0.003130559776081867</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>0.0005638352581334294</v>
+        <v>0.002499161684699526</v>
       </c>
       <c r="C25">
-        <v>4.1625E-05</v>
+        <v>0.0001845</v>
       </c>
       <c r="D25">
-        <v>1.770083093143071E-05</v>
+        <v>7.845773710147655E-05</v>
       </c>
       <c r="E25">
-        <v>1.155014004264989E-05</v>
+        <v>5.119521532417789E-05</v>
       </c>
       <c r="F25">
-        <v>4.534476186479502E-05</v>
+        <v>0.0002009875931304428</v>
       </c>
       <c r="G25">
-        <v>1.668634298887362E-05</v>
+        <v>7.396108784257492E-05</v>
       </c>
       <c r="H25">
-        <v>3.188220872622663E-06</v>
+        <v>1.413157359757072E-05</v>
       </c>
       <c r="I25">
-        <v>0.0006999305548338014</v>
+        <v>0.003102394891695769</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>0.000497410830462916</v>
+        <v>0.002204739897186978</v>
       </c>
       <c r="C26">
-        <v>8.741249999999999E-05</v>
+        <v>0.0003874500000000001</v>
       </c>
       <c r="D26">
-        <v>3.186149567657524E-05</v>
+        <v>0.0001412239267826578</v>
       </c>
       <c r="E26">
-        <v>1.243861235362296E-05</v>
+        <v>5.513330881065314E-05</v>
       </c>
       <c r="F26">
-        <v>8.045038395366861E-05</v>
+        <v>0.0003565908910378824</v>
       </c>
       <c r="G26">
-        <v>2.224845731849816E-05</v>
+        <v>9.861478379009995E-05</v>
       </c>
       <c r="H26">
-        <v>1.062740290874221E-06</v>
+        <v>4.710524532523574E-06</v>
       </c>
       <c r="I26">
-        <v>0.000732885020056155</v>
+        <v>0.003248463332140795</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.00042944164866053</v>
+        <v>0.001903471091360186</v>
       </c>
       <c r="C27">
-        <v>8.741249999999999E-05</v>
+        <v>0.0003874500000000001</v>
       </c>
       <c r="D27">
-        <v>2.301108021085993E-05</v>
+        <v>0.0001019950582319196</v>
       </c>
       <c r="E27">
-        <v>7.552014643271082E-06</v>
+        <v>3.347379463503939E-05</v>
       </c>
       <c r="F27">
-        <v>9.434635936384769E-05</v>
+        <v>0.000418183863126244</v>
       </c>
       <c r="G27">
-        <v>1.557392012294871E-05</v>
+        <v>6.903034865306996E-05</v>
       </c>
       <c r="H27">
-        <v>5.313701454371105E-07</v>
+        <v>2.355262266261787E-06</v>
       </c>
       <c r="I27">
-        <v>0.0006578688931468945</v>
+        <v>0.002915959418272721</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.0004873699286057452</v>
+        <v>0.002160234278144384</v>
       </c>
       <c r="C28">
-        <v>0.0001207125</v>
+        <v>0.00053505</v>
       </c>
       <c r="D28">
-        <v>2.301108021085993E-05</v>
+        <v>0.0001019950582319196</v>
       </c>
       <c r="E28">
-        <v>1.021743157619029E-05</v>
+        <v>4.528807509446506E-05</v>
       </c>
       <c r="F28">
-        <v>7.31367126851533E-05</v>
+        <v>0.0003241735373071658</v>
       </c>
       <c r="G28">
-        <v>2.224845731849816E-05</v>
+        <v>9.861478379009995E-05</v>
       </c>
       <c r="H28">
-        <v>1.062740290874221E-06</v>
+        <v>4.710524532523574E-06</v>
       </c>
       <c r="I28">
-        <v>0.0007377588506873212</v>
+        <v>0.003270066257100558</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.0004441168129133178</v>
+        <v>0.001968517765345517</v>
       </c>
       <c r="C29">
-        <v>0.0001040625</v>
+        <v>0.00046125</v>
       </c>
       <c r="D29">
-        <v>2.478116330400297E-05</v>
+        <v>0.0001098408319420672</v>
       </c>
       <c r="E29">
-        <v>7.552014643271082E-06</v>
+        <v>3.347379463503939E-05</v>
       </c>
       <c r="F29">
-        <v>5.997210440182565E-05</v>
+        <v>0.0002658223005918758</v>
       </c>
       <c r="G29">
-        <v>9.455594360361721E-06</v>
+        <v>4.191128311079249E-05</v>
       </c>
       <c r="H29">
-        <v>1.594110436311331E-06</v>
+        <v>7.06578679878536E-06</v>
       </c>
       <c r="I29">
-        <v>0.0006515343000590906</v>
+        <v>0.002887881762424078</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>0.0004487510753089351</v>
+        <v>0.001989058820288252</v>
       </c>
       <c r="C30">
-        <v>6.243749999999999E-05</v>
+        <v>0.00027675</v>
       </c>
       <c r="D30">
-        <v>2.212603866428838E-05</v>
+        <v>9.807217137684573E-05</v>
       </c>
       <c r="E30">
-        <v>6.663542332298014E-06</v>
+        <v>2.953570114856416E-05</v>
       </c>
       <c r="F30">
-        <v>7.31367126851533E-05</v>
+        <v>0.0003241735373071658</v>
       </c>
       <c r="G30">
-        <v>1.835497728776098E-05</v>
+        <v>8.135719662683248E-05</v>
       </c>
       <c r="H30">
-        <v>2.125480581748442E-06</v>
+        <v>9.421049065047147E-06</v>
       </c>
       <c r="I30">
-        <v>0.0006335953268601842</v>
+        <v>0.002808368475812708</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.0004502958294408077</v>
+        <v>0.001995905838602497</v>
       </c>
       <c r="C31">
-        <v>8.324999999999999E-05</v>
+        <v>0.000369</v>
       </c>
       <c r="D31">
-        <v>2.832132949028911E-05</v>
+        <v>0.0001255323793623625</v>
       </c>
       <c r="E31">
-        <v>7.107778487784549E-06</v>
+        <v>3.150474789180178E-05</v>
       </c>
       <c r="F31">
-        <v>8.556995384162929E-05</v>
+        <v>0.0003792830386493839</v>
       </c>
       <c r="G31">
-        <v>1.168044009221153E-05</v>
+        <v>5.177276148980247E-05</v>
       </c>
       <c r="H31">
-        <v>1.062740290874221E-06</v>
+        <v>4.710524532523574E-06</v>
       </c>
       <c r="I31">
-        <v>0.0006672880716435964</v>
+        <v>0.002957709290528372</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,28 +1278,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>0.0004711500102210848</v>
+        <v>0.002088340585844809</v>
       </c>
       <c r="C32">
-        <v>9.57375E-05</v>
+        <v>0.00042435</v>
       </c>
       <c r="D32">
-        <v>2.212603866428838E-05</v>
+        <v>9.807217137684573E-05</v>
       </c>
       <c r="E32">
-        <v>9.32895926521722E-06</v>
+        <v>4.134998160798983E-05</v>
       </c>
       <c r="F32">
-        <v>8.556995384162929E-05</v>
+        <v>0.0003792830386493839</v>
       </c>
       <c r="G32">
-        <v>1.279286295813644E-05</v>
+        <v>5.670350067930748E-05</v>
       </c>
       <c r="H32">
-        <v>1.594110436311331E-06</v>
+        <v>7.06578679878536E-06</v>
       </c>
       <c r="I32">
-        <v>0.0006982994353866675</v>
+        <v>0.003095165064957121</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1307,28 +1307,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>0.0005368020608256625</v>
+        <v>0.002379338864200233</v>
       </c>
       <c r="C33">
-        <v>6.660000000000002E-05</v>
+        <v>0.0002952</v>
       </c>
       <c r="D33">
-        <v>3.540166186286141E-05</v>
+        <v>0.0001569154742029531</v>
       </c>
       <c r="E33">
-        <v>1.066166773167682E-05</v>
+        <v>4.725712183770267E-05</v>
       </c>
       <c r="F33">
-        <v>7.971901682681705E-05</v>
+        <v>0.0003533491556648107</v>
       </c>
       <c r="G33">
-        <v>1.223665152517399E-05</v>
+        <v>5.423813108455498E-05</v>
       </c>
       <c r="H33">
-        <v>1.594110436311331E-06</v>
+        <v>7.06578679878536E-06</v>
       </c>
       <c r="I33">
-        <v>0.0007430151692085031</v>
+        <v>0.003293364533789039</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,28 +1336,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>0.0006534309977820295</v>
+        <v>0.002896288746925752</v>
       </c>
       <c r="C34">
-        <v>9.990000000000003E-05</v>
+        <v>0.0004428</v>
       </c>
       <c r="D34">
-        <v>2.212603866428838E-05</v>
+        <v>9.807217137684573E-05</v>
       </c>
       <c r="E34">
-        <v>9.773195420703756E-06</v>
+        <v>4.331902835122744E-05</v>
       </c>
       <c r="F34">
-        <v>6.94798770508956E-05</v>
+        <v>0.0003079648604418075</v>
       </c>
       <c r="G34">
-        <v>8.899382927399266E-06</v>
+        <v>3.944591351603998E-05</v>
       </c>
       <c r="H34">
-        <v>5.313701454371105E-07</v>
+        <v>2.355262266261787E-06</v>
       </c>
       <c r="I34">
-        <v>0.0008641408619907535</v>
+        <v>0.003830245982877936</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1365,28 +1365,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>0.0006379834564633053</v>
+        <v>0.002827818563783298</v>
       </c>
       <c r="C35">
-        <v>2.91375E-05</v>
+        <v>0.00012915</v>
       </c>
       <c r="D35">
-        <v>2.389612175743144E-05</v>
+        <v>0.0001059179450869935</v>
       </c>
       <c r="E35">
-        <v>1.155014004264989E-05</v>
+        <v>5.119521532417789E-05</v>
       </c>
       <c r="F35">
-        <v>3.656835634257665E-05</v>
+        <v>0.0001620867686535829</v>
       </c>
       <c r="G35">
-        <v>5.56211432962454E-06</v>
+        <v>2.465369594752499E-05</v>
       </c>
       <c r="H35">
-        <v>1.062740290874221E-06</v>
+        <v>4.710524532523574E-06</v>
       </c>
       <c r="I35">
-        <v>0.0007457604292264619</v>
+        <v>0.003305532713328101</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1394,28 +1394,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>0.000562290504001557</v>
+        <v>0.002492314666385279</v>
       </c>
       <c r="C36">
-        <v>4.995000000000001E-05</v>
+        <v>0.0002214</v>
       </c>
       <c r="D36">
-        <v>1.681578938485915E-05</v>
+        <v>7.45348502464028E-05</v>
       </c>
       <c r="E36">
-        <v>1.55482654420287E-05</v>
+        <v>6.89166360133164E-05</v>
       </c>
       <c r="F36">
-        <v>2.632921656665517E-05</v>
+        <v>0.0001167024734305797</v>
       </c>
       <c r="G36">
-        <v>9.455594360361721E-06</v>
+        <v>4.191128311079249E-05</v>
       </c>
       <c r="H36">
-        <v>1.062740290874221E-06</v>
+        <v>4.710524532523574E-06</v>
       </c>
       <c r="I36">
-        <v>0.0006814521100463359</v>
+        <v>0.003020490433718894</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1423,28 +1423,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.0004417996817155091</v>
+        <v>0.00195824723787415</v>
       </c>
       <c r="C37">
-        <v>2.497500000000001E-05</v>
+        <v>0.0001107</v>
       </c>
       <c r="D37">
-        <v>1.327562319857302E-05</v>
+        <v>5.884330282610746E-05</v>
       </c>
       <c r="E37">
-        <v>1.243861235362296E-05</v>
+        <v>5.513330881065314E-05</v>
       </c>
       <c r="F37">
-        <v>2.340374805924905E-05</v>
+        <v>0.0001037355319382931</v>
       </c>
       <c r="G37">
-        <v>5.005902896662084E-06</v>
+        <v>2.218832635277248E-05</v>
       </c>
       <c r="H37">
-        <v>5.313701454371105E-07</v>
+        <v>2.355262266261787E-06</v>
       </c>
       <c r="I37">
-        <v>0.0005214299383690533</v>
+        <v>0.002311202970068238</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1452,25 +1452,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.0003467973026053559</v>
+        <v>0.001537155611548064</v>
       </c>
       <c r="C38">
-        <v>3.74625E-05</v>
+        <v>0.00016605</v>
       </c>
       <c r="D38">
-        <v>1.239058165200148E-05</v>
+        <v>5.492041597103361E-05</v>
       </c>
       <c r="E38">
-        <v>1.42155569755691E-05</v>
+        <v>6.300949578360356E-05</v>
       </c>
       <c r="F38">
-        <v>1.535870966388218E-05</v>
+        <v>6.807644283450483E-05</v>
       </c>
       <c r="G38">
-        <v>3.337268597774725E-06</v>
+        <v>1.4792217568515E-05</v>
       </c>
       <c r="I38">
-        <v>0.0004295619194945834</v>
+        <v>0.001904004183705722</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1478,28 +1478,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.0002278512344511805</v>
+        <v>0.001009935201351178</v>
       </c>
       <c r="C39">
-        <v>1.665E-05</v>
+        <v>7.38E-05</v>
       </c>
       <c r="D39">
-        <v>5.310249279429211E-06</v>
+        <v>2.3537321130443E-05</v>
       </c>
       <c r="E39">
-        <v>7.996250798757619E-06</v>
+        <v>3.544284137827701E-05</v>
       </c>
       <c r="F39">
-        <v>1.097050690277299E-05</v>
+        <v>4.862603059607488E-05</v>
       </c>
       <c r="G39">
-        <v>3.893480030737178E-06</v>
+        <v>1.725758716326749E-05</v>
       </c>
       <c r="H39">
-        <v>5.313701454371105E-07</v>
+        <v>2.355262266261787E-06</v>
       </c>
       <c r="I39">
-        <v>0.0002732030916083146</v>
+        <v>0.001210954243885502</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.0001181736910882393</v>
+        <v>0.0005237969010397634</v>
       </c>
       <c r="C40">
-        <v>4.57875E-05</v>
+        <v>0.00020295</v>
       </c>
       <c r="D40">
-        <v>7.080332372572278E-06</v>
+        <v>3.138309484059063E-05</v>
       </c>
       <c r="E40">
-        <v>3.553889243892275E-06</v>
+        <v>1.575237394590089E-05</v>
       </c>
       <c r="F40">
-        <v>1.316460828332758E-05</v>
+        <v>5.835123671528986E-05</v>
       </c>
       <c r="G40">
-        <v>2.78105716481227E-06</v>
+        <v>1.232684797376249E-05</v>
       </c>
       <c r="I40">
-        <v>0.0001905410781528437</v>
+        <v>0.0008445604545153073</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,22 +1533,22 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>8.109959192330156E-05</v>
+        <v>0.0003594684614978768</v>
       </c>
       <c r="C41">
-        <v>2.08125E-05</v>
+        <v>9.225000000000001E-05</v>
       </c>
       <c r="D41">
-        <v>1.77008309314307E-06</v>
+        <v>7.845773710147657E-06</v>
       </c>
       <c r="F41">
-        <v>6.582304141663792E-06</v>
+        <v>2.917561835764493E-05</v>
       </c>
       <c r="G41">
-        <v>2.78105716481227E-06</v>
+        <v>1.232684797376249E-05</v>
       </c>
       <c r="I41">
-        <v>0.0001130455363229207</v>
+        <v>0.0005010667015394319</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1556,28 +1556,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>6.565205060457744E-05</v>
+        <v>0.0002909982783554241</v>
       </c>
       <c r="C42">
-        <v>4.1625E-05</v>
+        <v>0.0001845</v>
       </c>
       <c r="D42">
-        <v>3.540166186286139E-06</v>
+        <v>1.569154742029531E-05</v>
       </c>
       <c r="E42">
-        <v>4.442361554865343E-07</v>
+        <v>1.969046743237611E-06</v>
       </c>
       <c r="F42">
-        <v>8.776405522218395E-06</v>
+        <v>3.89008244768599E-05</v>
       </c>
       <c r="G42">
-        <v>2.224845731849817E-06</v>
+        <v>9.861478379009995E-06</v>
       </c>
       <c r="H42">
-        <v>1.062740290874221E-06</v>
+        <v>4.710524532523574E-06</v>
       </c>
       <c r="I42">
-        <v>0.0001233254444912925</v>
+        <v>0.0005466316999073505</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1585,22 +1585,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>3.630172209900164E-05</v>
+        <v>0.000160904930384764</v>
       </c>
       <c r="C43">
-        <v>1.24875E-05</v>
+        <v>5.535E-05</v>
       </c>
       <c r="D43">
-        <v>3.540166186286139E-06</v>
+        <v>1.569154742029531E-05</v>
       </c>
       <c r="F43">
-        <v>9.507772649069922E-06</v>
+        <v>4.214255984993155E-05</v>
       </c>
       <c r="G43">
-        <v>3.893480030737178E-06</v>
+        <v>1.725758716326749E-05</v>
       </c>
       <c r="I43">
-        <v>6.573064096509488E-05</v>
+        <v>0.0002913466248182584</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1608,25 +1608,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>3.552934503306544E-05</v>
+        <v>0.0001574814212276413</v>
       </c>
       <c r="C44">
-        <v>1.24875E-05</v>
+        <v>5.535E-05</v>
       </c>
       <c r="D44">
-        <v>2.655124639714606E-06</v>
+        <v>1.17686605652215E-05</v>
       </c>
       <c r="E44">
-        <v>1.776944621946137E-06</v>
+        <v>7.876186972950445E-06</v>
       </c>
       <c r="F44">
-        <v>5.850937014812262E-06</v>
+        <v>2.593388298457327E-05</v>
       </c>
       <c r="G44">
-        <v>1.112422865924908E-06</v>
+        <v>4.930739189504997E-06</v>
       </c>
       <c r="I44">
-        <v>5.941227417546336E-05</v>
+        <v>0.0002633408909398916</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1634,25 +1634,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>9.268524791234454E-05</v>
+        <v>0.0004108210988547163</v>
       </c>
       <c r="C45">
-        <v>4.162500000000001E-06</v>
+        <v>1.845E-05</v>
       </c>
       <c r="D45">
-        <v>3.540166186286139E-06</v>
+        <v>1.569154742029531E-05</v>
       </c>
       <c r="E45">
-        <v>8.884723109730687E-07</v>
+        <v>3.938093486475223E-06</v>
       </c>
       <c r="F45">
-        <v>9.507772649069922E-06</v>
+        <v>4.214255984993155E-05</v>
       </c>
       <c r="G45">
-        <v>1.112422865924908E-06</v>
+        <v>4.930739189504997E-06</v>
       </c>
       <c r="I45">
-        <v>0.0001118965819245986</v>
+        <v>0.0004959740388009233</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,25 +1660,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.0002672424648139268</v>
+        <v>0.001184534168364432</v>
       </c>
       <c r="C46">
-        <v>3.330000000000001E-05</v>
+        <v>0.0001476</v>
       </c>
       <c r="D46">
-        <v>1.327562319857302E-05</v>
+        <v>5.884330282610746E-05</v>
       </c>
       <c r="E46">
-        <v>3.998125399378809E-06</v>
+        <v>1.772142068913851E-05</v>
       </c>
       <c r="F46">
-        <v>3.071741932776436E-05</v>
+        <v>0.0001361528856690097</v>
       </c>
       <c r="G46">
-        <v>8.899382927399266E-06</v>
+        <v>3.944591351603998E-05</v>
       </c>
       <c r="I46">
-        <v>0.0003574330156670423</v>
+        <v>0.001584297691064728</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1686,28 +1686,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.0004232626321330401</v>
+        <v>0.001876083018103205</v>
       </c>
       <c r="C47">
-        <v>5.827500000000001E-05</v>
+        <v>0.0002583000000000001</v>
       </c>
       <c r="D47">
-        <v>1.416066474514456E-05</v>
+        <v>6.276618968118126E-05</v>
       </c>
       <c r="E47">
-        <v>1.55482654420287E-05</v>
+        <v>6.89166360133164E-05</v>
       </c>
       <c r="F47">
-        <v>5.485253451386493E-05</v>
+        <v>0.0002431301529803744</v>
       </c>
       <c r="G47">
-        <v>1.835497728776098E-05</v>
+        <v>8.135719662683248E-05</v>
       </c>
       <c r="H47">
-        <v>2.656850727185553E-06</v>
+        <v>1.177631133130893E-05</v>
       </c>
       <c r="I47">
-        <v>0.0005871109248490248</v>
+        <v>0.002602329504736218</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1715,28 +1715,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>0.0005576562416059399</v>
+        <v>0.002471773611442543</v>
       </c>
       <c r="C48">
-        <v>3.74625E-05</v>
+        <v>0.00016605</v>
       </c>
       <c r="D48">
-        <v>2.212603866428838E-05</v>
+        <v>9.807217137684573E-05</v>
       </c>
       <c r="E48">
-        <v>1.68809739084883E-05</v>
+        <v>7.482377624302922E-05</v>
       </c>
       <c r="F48">
-        <v>5.997210440182565E-05</v>
+        <v>0.0002658223005918758</v>
       </c>
       <c r="G48">
-        <v>1.112422865924908E-05</v>
+        <v>4.930739189504997E-05</v>
       </c>
       <c r="H48">
-        <v>1.062740290874221E-06</v>
+        <v>4.710524532523574E-06</v>
       </c>
       <c r="I48">
-        <v>0.0007062848275306655</v>
+        <v>0.003130559776081867</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1744,28 +1744,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>0.0005638352581334294</v>
+        <v>0.002499161684699526</v>
       </c>
       <c r="C49">
-        <v>4.1625E-05</v>
+        <v>0.0001845</v>
       </c>
       <c r="D49">
-        <v>1.770083093143071E-05</v>
+        <v>7.845773710147655E-05</v>
       </c>
       <c r="E49">
-        <v>1.155014004264989E-05</v>
+        <v>5.119521532417789E-05</v>
       </c>
       <c r="F49">
-        <v>4.534476186479502E-05</v>
+        <v>0.0002009875931304428</v>
       </c>
       <c r="G49">
-        <v>1.668634298887362E-05</v>
+        <v>7.396108784257492E-05</v>
       </c>
       <c r="H49">
-        <v>3.188220872622663E-06</v>
+        <v>1.413157359757072E-05</v>
       </c>
       <c r="I49">
-        <v>0.0006999305548338014</v>
+        <v>0.003102394891695769</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_SOx.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.8037744963162483</v>
+        <v>0.1786165547369441</v>
       </c>
       <c r="C2">
-        <v>0.02231712</v>
+        <v>0.004959360000000001</v>
       </c>
       <c r="D2">
-        <v>0.1082973746438469</v>
+        <v>0.0240660832541882</v>
       </c>
       <c r="E2">
-        <v>0.1462083691953497</v>
+        <v>0.0324907487100777</v>
       </c>
       <c r="F2">
-        <v>0.1033385498890149</v>
+        <v>0.02296412219755888</v>
       </c>
       <c r="G2">
-        <v>0.2265331720073212</v>
+        <v>0.05034070489051588</v>
       </c>
       <c r="H2">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I2">
-        <v>1.423609608704688</v>
+        <v>0.3163576908232641</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,25 +467,25 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.9235918125373042</v>
+        <v>0.2052426250082898</v>
       </c>
       <c r="C3">
-        <v>0.026568</v>
+        <v>0.005904000000000001</v>
       </c>
       <c r="D3">
-        <v>0.07219824976256468</v>
+        <v>0.01604405550279214</v>
       </c>
       <c r="E3">
-        <v>0.08354763954019984</v>
+        <v>0.01856614212004441</v>
       </c>
       <c r="F3">
-        <v>0.1296429080425826</v>
+        <v>0.0288095351205739</v>
       </c>
       <c r="G3">
-        <v>0.3511264166113478</v>
+        <v>0.07802809258029958</v>
       </c>
       <c r="I3">
-        <v>1.586675026493999</v>
+        <v>0.3525944503319998</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -493,28 +493,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.7526025175135057</v>
+        <v>0.1672450038918903</v>
       </c>
       <c r="C4">
-        <v>0.01912896</v>
+        <v>0.00425088</v>
       </c>
       <c r="D4">
-        <v>0.05715694772869698</v>
+        <v>0.01270154393971044</v>
       </c>
       <c r="E4">
-        <v>0.1409866417240872</v>
+        <v>0.03133036482757495</v>
       </c>
       <c r="F4">
-        <v>0.1014596671637602</v>
+        <v>0.02254659270305782</v>
       </c>
       <c r="G4">
-        <v>0.2321965013075044</v>
+        <v>0.05159922251277872</v>
       </c>
       <c r="H4">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I4">
-        <v>1.316671762090462</v>
+        <v>0.2925937249089915</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,28 +522,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.8611869603388379</v>
+        <v>0.1913748800752973</v>
       </c>
       <c r="C5">
-        <v>0.02550528</v>
+        <v>0.00566784</v>
       </c>
       <c r="D5">
-        <v>0.08723955179643231</v>
+        <v>0.01938656706587385</v>
       </c>
       <c r="E5">
-        <v>0.09399109448272484</v>
+        <v>0.02088690988504996</v>
       </c>
       <c r="F5">
-        <v>0.09864134307587799</v>
+        <v>0.02192029846130621</v>
       </c>
       <c r="G5">
-        <v>0.1642365497053079</v>
+        <v>0.03649701104562398</v>
       </c>
       <c r="H5">
-        <v>0.02628105330581394</v>
+        <v>0.005840234067958653</v>
       </c>
       <c r="I5">
-        <v>1.357081832704995</v>
+        <v>0.3015737406011099</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -551,28 +551,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.8187516608438807</v>
+        <v>0.1819448135208623</v>
       </c>
       <c r="C6">
-        <v>0.03506976000000001</v>
+        <v>0.007793279999999995</v>
       </c>
       <c r="D6">
-        <v>0.07219824976256468</v>
+        <v>0.01604405550279214</v>
       </c>
       <c r="E6">
-        <v>0.08876936701146236</v>
+        <v>0.01972652600254719</v>
       </c>
       <c r="F6">
-        <v>0.09770190171325054</v>
+        <v>0.02171153371405569</v>
       </c>
       <c r="G6">
-        <v>0.220869842707138</v>
+        <v>0.04908218726825289</v>
       </c>
       <c r="H6">
-        <v>0.006570263326453485</v>
+        <v>0.001460058516989663</v>
       </c>
       <c r="I6">
-        <v>1.33993104536475</v>
+        <v>0.2977624545254998</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -580,28 +580,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.8025263992722788</v>
+        <v>0.1783391998382845</v>
       </c>
       <c r="C7">
-        <v>0.02019168</v>
+        <v>0.00448704</v>
       </c>
       <c r="D7">
-        <v>0.05715694772869698</v>
+        <v>0.01270154393971044</v>
       </c>
       <c r="E7">
-        <v>0.1200997318390372</v>
+        <v>0.02668882929756385</v>
       </c>
       <c r="F7">
-        <v>0.1099146394274069</v>
+        <v>0.02442547542831263</v>
       </c>
       <c r="G7">
-        <v>0.2038798548065892</v>
+        <v>0.04530663440146428</v>
       </c>
       <c r="H7">
-        <v>0.05913236993808137</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I7">
-        <v>1.372901623012091</v>
+        <v>0.3050892495582427</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -609,28 +609,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.7738201672609846</v>
+        <v>0.1719600371691075</v>
       </c>
       <c r="C8">
-        <v>0.03081888</v>
+        <v>0.00684864</v>
       </c>
       <c r="D8">
-        <v>0.06016520813547058</v>
+        <v>0.01337004625232679</v>
       </c>
       <c r="E8">
-        <v>0.1044345494252497</v>
+        <v>0.02320767765005553</v>
       </c>
       <c r="F8">
-        <v>0.1042779912516425</v>
+        <v>0.02317288694480945</v>
       </c>
       <c r="G8">
-        <v>0.1698998790054909</v>
+        <v>0.03775552866788685</v>
       </c>
       <c r="H8">
-        <v>0.01971078997936045</v>
+        <v>0.00438017555096899</v>
       </c>
       <c r="I8">
-        <v>1.263127465058199</v>
+        <v>0.2806949922351551</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -638,28 +638,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>0.8674274455586849</v>
+        <v>0.1927616545685964</v>
       </c>
       <c r="C9">
-        <v>0.01700352</v>
+        <v>0.003778559999999999</v>
       </c>
       <c r="D9">
-        <v>0.1203304162709412</v>
+        <v>0.02674009250465359</v>
       </c>
       <c r="E9">
-        <v>0.1253214593102998</v>
+        <v>0.02784921318006662</v>
       </c>
       <c r="F9">
-        <v>0.1023991085263875</v>
+        <v>0.02275535745030838</v>
       </c>
       <c r="G9">
-        <v>0.1245932446040268</v>
+        <v>0.0276873876897837</v>
       </c>
       <c r="H9">
-        <v>0.01971078997936045</v>
+        <v>0.00438017555096899</v>
       </c>
       <c r="I9">
-        <v>1.376785984249701</v>
+        <v>0.3059524409443776</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1.055890099198053</v>
+        <v>0.2346422442662341</v>
       </c>
       <c r="C10">
-        <v>0.02550528</v>
+        <v>0.00566784</v>
       </c>
       <c r="D10">
-        <v>0.07520651016933813</v>
+        <v>0.01671255781540848</v>
       </c>
       <c r="E10">
-        <v>0.1148780043677748</v>
+        <v>0.02552844541506106</v>
       </c>
       <c r="F10">
-        <v>0.0892469294496039</v>
+        <v>0.01983265098880086</v>
       </c>
       <c r="G10">
-        <v>0.09061326880292857</v>
+        <v>0.02013628195620636</v>
       </c>
       <c r="H10">
-        <v>0.006570263326453485</v>
+        <v>0.001460058516989663</v>
       </c>
       <c r="I10">
-        <v>1.457910355314152</v>
+        <v>0.3239800789587006</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1.030928158318666</v>
+        <v>0.2290951462930368</v>
       </c>
       <c r="C11">
-        <v>0.00743904</v>
+        <v>0.00165312</v>
       </c>
       <c r="D11">
-        <v>0.08122303098288519</v>
+        <v>0.01804956244064117</v>
       </c>
       <c r="E11">
-        <v>0.1357649142528247</v>
+        <v>0.03016998094507216</v>
       </c>
       <c r="F11">
-        <v>0.04697206813137043</v>
+        <v>0.01043823736252676</v>
       </c>
       <c r="G11">
-        <v>0.05663329300183031</v>
+        <v>0.01258517622262897</v>
       </c>
       <c r="H11">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I11">
-        <v>1.372101031340484</v>
+        <v>0.3049113402978852</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>0.9086146480096728</v>
+        <v>0.2019143662243715</v>
       </c>
       <c r="C12">
-        <v>0.01275264</v>
+        <v>0.00283392</v>
       </c>
       <c r="D12">
-        <v>0.05715694772869698</v>
+        <v>0.01270154393971044</v>
       </c>
       <c r="E12">
-        <v>0.1827604614941871</v>
+        <v>0.04061343588759714</v>
       </c>
       <c r="F12">
-        <v>0.03381988905458675</v>
+        <v>0.007515530901019277</v>
       </c>
       <c r="G12">
-        <v>0.09627659810311148</v>
+        <v>0.02139479957846924</v>
       </c>
       <c r="H12">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I12">
-        <v>1.304521711043162</v>
+        <v>0.2898937135651469</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.7139115091504565</v>
+        <v>0.1586470020334347</v>
       </c>
       <c r="C13">
-        <v>0.00637632</v>
+        <v>0.00141696</v>
       </c>
       <c r="D13">
-        <v>0.04512390610160293</v>
+        <v>0.01002753468924509</v>
       </c>
       <c r="E13">
-        <v>0.1462083691953497</v>
+        <v>0.0324907487100777</v>
       </c>
       <c r="F13">
-        <v>0.03006212360407711</v>
+        <v>0.006680471912017131</v>
       </c>
       <c r="G13">
-        <v>0.0509699637016473</v>
+        <v>0.01132665860036607</v>
       </c>
       <c r="H13">
-        <v>0.006570263326453485</v>
+        <v>0.001460058516989663</v>
       </c>
       <c r="I13">
-        <v>0.9992224550795871</v>
+        <v>0.2220494344621304</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.5603955727422296</v>
+        <v>0.1245323494982732</v>
       </c>
       <c r="C14">
-        <v>0.00956448</v>
+        <v>0.00212544</v>
       </c>
       <c r="D14">
-        <v>0.04211564569482933</v>
+        <v>0.009359032376628754</v>
       </c>
       <c r="E14">
-        <v>0.1670952790803997</v>
+        <v>0.03713228424008882</v>
       </c>
       <c r="F14">
-        <v>0.01972826861517559</v>
+        <v>0.004384059692261244</v>
       </c>
       <c r="G14">
-        <v>0.03397997580109823</v>
+        <v>0.007551105733577368</v>
       </c>
       <c r="I14">
-        <v>0.8328792219337324</v>
+        <v>0.1850842715408294</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,28 +809,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.368188627970952</v>
+        <v>0.08181969510465606</v>
       </c>
       <c r="C15">
-        <v>0.00425088</v>
+        <v>0.0009446399999999998</v>
       </c>
       <c r="D15">
-        <v>0.01804956244064117</v>
+        <v>0.004011013875698034</v>
       </c>
       <c r="E15">
-        <v>0.09399109448272484</v>
+        <v>0.02088690988504996</v>
       </c>
       <c r="F15">
-        <v>0.01409162043941115</v>
+        <v>0.003131471208758032</v>
       </c>
       <c r="G15">
-        <v>0.03964330510128119</v>
+        <v>0.008809623355840271</v>
       </c>
       <c r="H15">
-        <v>0.006570263326453485</v>
+        <v>0.001460058516989663</v>
       </c>
       <c r="I15">
-        <v>0.5447853537614639</v>
+        <v>0.121063411946992</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,25 +838,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.1909588477273075</v>
+        <v>0.0424352994949572</v>
       </c>
       <c r="C16">
-        <v>0.01168992000000001</v>
+        <v>0.002597759999999999</v>
       </c>
       <c r="D16">
-        <v>0.02406608325418819</v>
+        <v>0.005348018500930717</v>
       </c>
       <c r="E16">
-        <v>0.04177381977009992</v>
+        <v>0.009283071060022205</v>
       </c>
       <c r="F16">
-        <v>0.01690994452729338</v>
+        <v>0.003757765450509638</v>
       </c>
       <c r="G16">
-        <v>0.02831664650091515</v>
+        <v>0.006292588111314485</v>
       </c>
       <c r="I16">
-        <v>0.3137152617798041</v>
+        <v>0.06971450261773425</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -864,22 +864,22 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.1310501896167798</v>
+        <v>0.02912226435928437</v>
       </c>
       <c r="C17">
-        <v>0.005313599999999998</v>
+        <v>0.0011808</v>
       </c>
       <c r="D17">
-        <v>0.006016520813547048</v>
+        <v>0.001337004625232679</v>
       </c>
       <c r="F17">
-        <v>0.008454972263646688</v>
+        <v>0.001878882725254819</v>
       </c>
       <c r="G17">
-        <v>0.02831664650091515</v>
+        <v>0.006292588111314485</v>
       </c>
       <c r="I17">
-        <v>0.1791519291948887</v>
+        <v>0.03981153982108636</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,28 +887,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.1060882487373931</v>
+        <v>0.02357516638608734</v>
       </c>
       <c r="C18">
-        <v>0.0106272</v>
+        <v>0.0023616</v>
       </c>
       <c r="D18">
-        <v>0.0120330416270941</v>
+        <v>0.002674009250465358</v>
       </c>
       <c r="E18">
-        <v>0.00522172747126249</v>
+        <v>0.001160383882502776</v>
       </c>
       <c r="F18">
-        <v>0.01127329635152891</v>
+        <v>0.002505176967006425</v>
       </c>
       <c r="G18">
-        <v>0.02265331720073214</v>
+        <v>0.005034070489051589</v>
       </c>
       <c r="H18">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I18">
-        <v>0.1810373580409176</v>
+        <v>0.04023052400909282</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,22 +916,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.05866056106655853</v>
+        <v>0.01303568023701301</v>
       </c>
       <c r="C19">
-        <v>0.00318816</v>
+        <v>0.00070848</v>
       </c>
       <c r="D19">
-        <v>0.0120330416270941</v>
+        <v>0.002674009250465358</v>
       </c>
       <c r="F19">
-        <v>0.01221273771415632</v>
+        <v>0.002713941714256961</v>
       </c>
       <c r="G19">
-        <v>0.03964330510128119</v>
+        <v>0.008809623355840271</v>
       </c>
       <c r="I19">
-        <v>0.1257378055090901</v>
+        <v>0.02794173455757559</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -939,25 +939,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.05741246402258916</v>
+        <v>0.01275832533835315</v>
       </c>
       <c r="C20">
-        <v>0.00318816</v>
+        <v>0.00070848</v>
       </c>
       <c r="D20">
-        <v>0.009024781220320586</v>
+        <v>0.002005506937849017</v>
       </c>
       <c r="E20">
-        <v>0.02088690988504996</v>
+        <v>0.004641535530011102</v>
       </c>
       <c r="F20">
-        <v>0.007515530901019277</v>
+        <v>0.001670117978004283</v>
       </c>
       <c r="G20">
-        <v>0.01132665860036607</v>
+        <v>0.002517035244525795</v>
       </c>
       <c r="I20">
-        <v>0.1093545046293451</v>
+        <v>0.02430100102874334</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,25 +965,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.1497716452763195</v>
+        <v>0.03328258783918213</v>
       </c>
       <c r="C21">
-        <v>0.00106272</v>
+        <v>0.00023616</v>
       </c>
       <c r="D21">
-        <v>0.0120330416270941</v>
+        <v>0.002674009250465358</v>
       </c>
       <c r="E21">
-        <v>0.01044345494252498</v>
+        <v>0.002320767765005551</v>
       </c>
       <c r="F21">
-        <v>0.01221273771415632</v>
+        <v>0.002713941714256961</v>
       </c>
       <c r="G21">
-        <v>0.01132665860036607</v>
+        <v>0.002517035244525795</v>
       </c>
       <c r="I21">
-        <v>0.196850258160461</v>
+        <v>0.0437445018134358</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -991,25 +991,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.4318415772133882</v>
+        <v>0.09596479493630854</v>
       </c>
       <c r="C22">
-        <v>0.008501760000000001</v>
+        <v>0.00188928</v>
       </c>
       <c r="D22">
-        <v>0.04512390610160293</v>
+        <v>0.01002753468924509</v>
       </c>
       <c r="E22">
-        <v>0.04699554724136242</v>
+        <v>0.01044345494252498</v>
       </c>
       <c r="F22">
-        <v>0.03945653723035118</v>
+        <v>0.008768119384522488</v>
       </c>
       <c r="G22">
-        <v>0.09061326880292857</v>
+        <v>0.02013628195620636</v>
       </c>
       <c r="I22">
-        <v>0.6625325965896333</v>
+        <v>0.1472294659088074</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.6839571800951925</v>
+        <v>0.1519904844655985</v>
       </c>
       <c r="C23">
-        <v>0.01487808</v>
+        <v>0.00330624</v>
       </c>
       <c r="D23">
-        <v>0.04813216650837639</v>
+        <v>0.01069603700186143</v>
       </c>
       <c r="E23">
-        <v>0.1827604614941871</v>
+        <v>0.04061343588759714</v>
       </c>
       <c r="F23">
-        <v>0.07045810219705571</v>
+        <v>0.01565735604379017</v>
       </c>
       <c r="G23">
-        <v>0.1868898669060401</v>
+        <v>0.04153108153467559</v>
       </c>
       <c r="H23">
-        <v>0.03285131663226742</v>
+        <v>0.007300292584948317</v>
       </c>
       <c r="I23">
-        <v>1.219927173833119</v>
+        <v>0.2710949275184711</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>0.9011260657458565</v>
+        <v>0.2002502368324124</v>
       </c>
       <c r="C24">
-        <v>0.00956448</v>
+        <v>0.00212544</v>
       </c>
       <c r="D24">
-        <v>0.07520651016933813</v>
+        <v>0.01671255781540848</v>
       </c>
       <c r="E24">
-        <v>0.1984256439079746</v>
+        <v>0.04409458753510546</v>
       </c>
       <c r="F24">
-        <v>0.07703419173544758</v>
+        <v>0.01711870927454392</v>
       </c>
       <c r="G24">
-        <v>0.1132665860036606</v>
+        <v>0.02517035244525794</v>
       </c>
       <c r="H24">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I24">
-        <v>1.387764004215184</v>
+        <v>0.3083920009367075</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>0.9111108420976112</v>
+        <v>0.2024690760216911</v>
       </c>
       <c r="C25">
-        <v>0.0106272</v>
+        <v>0.0023616</v>
       </c>
       <c r="D25">
-        <v>0.06016520813547058</v>
+        <v>0.01337004625232679</v>
       </c>
       <c r="E25">
-        <v>0.1357649142528247</v>
+        <v>0.03016998094507216</v>
       </c>
       <c r="F25">
-        <v>0.05824536448289939</v>
+        <v>0.01294341432953321</v>
       </c>
       <c r="G25">
-        <v>0.1698998790054909</v>
+        <v>0.03775552866788685</v>
       </c>
       <c r="H25">
-        <v>0.03942157995872091</v>
+        <v>0.00876035110193798</v>
       </c>
       <c r="I25">
-        <v>1.385234987933017</v>
+        <v>0.3078299973184481</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>0.8037744963162483</v>
+        <v>0.1786165547369441</v>
       </c>
       <c r="C26">
-        <v>0.02231712</v>
+        <v>0.004959360000000001</v>
       </c>
       <c r="D26">
-        <v>0.1082973746438469</v>
+        <v>0.0240660832541882</v>
       </c>
       <c r="E26">
-        <v>0.1462083691953497</v>
+        <v>0.0324907487100777</v>
       </c>
       <c r="F26">
-        <v>0.1033385498890149</v>
+        <v>0.02296412219755888</v>
       </c>
       <c r="G26">
-        <v>0.2265331720073212</v>
+        <v>0.05034070489051588</v>
       </c>
       <c r="H26">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I26">
-        <v>1.423609608704688</v>
+        <v>0.3163576908232641</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.6939419564469471</v>
+        <v>0.1542093236548773</v>
       </c>
       <c r="C27">
-        <v>0.02231712</v>
+        <v>0.004959360000000001</v>
       </c>
       <c r="D27">
-        <v>0.07821477057611168</v>
+        <v>0.01738106012802482</v>
       </c>
       <c r="E27">
-        <v>0.08876936701146236</v>
+        <v>0.01972652600254719</v>
       </c>
       <c r="F27">
-        <v>0.1211879357789358</v>
+        <v>0.02693065239531907</v>
       </c>
       <c r="G27">
-        <v>0.1585732204051248</v>
+        <v>0.03523849342336108</v>
       </c>
       <c r="H27">
-        <v>0.006570263326453485</v>
+        <v>0.001460058516989663</v>
       </c>
       <c r="I27">
-        <v>1.169574633545035</v>
+        <v>0.2599054741211191</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.7875492347446478</v>
+        <v>0.1750109410543661</v>
       </c>
       <c r="C28">
-        <v>0.03081888</v>
+        <v>0.00684864</v>
       </c>
       <c r="D28">
-        <v>0.07821477057611168</v>
+        <v>0.01738106012802482</v>
       </c>
       <c r="E28">
-        <v>0.1200997318390372</v>
+        <v>0.02668882929756385</v>
       </c>
       <c r="F28">
-        <v>0.09394413626274085</v>
+        <v>0.02087647472505353</v>
       </c>
       <c r="G28">
-        <v>0.2265331720073212</v>
+        <v>0.05034070489051588</v>
       </c>
       <c r="H28">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I28">
-        <v>1.350300452082766</v>
+        <v>0.3000667671295035</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.7176558002823646</v>
+        <v>0.1594790667294144</v>
       </c>
       <c r="C29">
-        <v>0.026568</v>
+        <v>0.005904000000000001</v>
       </c>
       <c r="D29">
-        <v>0.08423129138965865</v>
+        <v>0.01871806475325751</v>
       </c>
       <c r="E29">
-        <v>0.08876936701146236</v>
+        <v>0.01972652600254719</v>
       </c>
       <c r="F29">
-        <v>0.07703419173544758</v>
+        <v>0.01711870927454392</v>
       </c>
       <c r="G29">
-        <v>0.09627659810311148</v>
+        <v>0.02139479957846924</v>
       </c>
       <c r="H29">
-        <v>0.01971078997936045</v>
+        <v>0.00438017555096899</v>
       </c>
       <c r="I29">
-        <v>1.110246038501405</v>
+        <v>0.2467213418892012</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>0.7251443825461801</v>
+        <v>0.1611431961213735</v>
       </c>
       <c r="C30">
-        <v>0.01594079999999999</v>
+        <v>0.003542400000000002</v>
       </c>
       <c r="D30">
-        <v>0.07520651016933813</v>
+        <v>0.01671255781540848</v>
       </c>
       <c r="E30">
-        <v>0.07832591206893737</v>
+        <v>0.01740575823754164</v>
       </c>
       <c r="F30">
-        <v>0.09394413626274085</v>
+        <v>0.02087647472505353</v>
       </c>
       <c r="G30">
-        <v>0.1868898669060401</v>
+        <v>0.04153108153467559</v>
       </c>
       <c r="H30">
-        <v>0.02628105330581394</v>
+        <v>0.005840234067958653</v>
       </c>
       <c r="I30">
-        <v>1.20173266125905</v>
+        <v>0.2670517025020113</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.7276405766341186</v>
+        <v>0.1616979059186931</v>
       </c>
       <c r="C31">
-        <v>0.02125439999999999</v>
+        <v>0.0047232</v>
       </c>
       <c r="D31">
-        <v>0.09626433301675277</v>
+        <v>0.02139207400372287</v>
       </c>
       <c r="E31">
-        <v>0.08354763954019984</v>
+        <v>0.01856614212004441</v>
       </c>
       <c r="F31">
-        <v>0.1099146394274069</v>
+        <v>0.02442547542831263</v>
       </c>
       <c r="G31">
-        <v>0.1189299153038437</v>
+        <v>0.02642887006752082</v>
       </c>
       <c r="H31">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I31">
-        <v>1.170692030575229</v>
+        <v>0.2601537845722732</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,28 +1278,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>0.7613391968212911</v>
+        <v>0.1691864881825092</v>
       </c>
       <c r="C32">
-        <v>0.02444256</v>
+        <v>0.005431679999999999</v>
       </c>
       <c r="D32">
-        <v>0.07520651016933813</v>
+        <v>0.01671255781540848</v>
       </c>
       <c r="E32">
-        <v>0.1096562768965122</v>
+        <v>0.02436806153255829</v>
       </c>
       <c r="F32">
-        <v>0.1099146394274069</v>
+        <v>0.02442547542831263</v>
       </c>
       <c r="G32">
-        <v>0.1302565739042098</v>
+        <v>0.02894590531204662</v>
       </c>
       <c r="H32">
-        <v>0.01971078997936045</v>
+        <v>0.00438017555096899</v>
       </c>
       <c r="I32">
-        <v>1.230526547198119</v>
+        <v>0.2734503438218042</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1307,28 +1307,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>0.8674274455586849</v>
+        <v>0.1927616545685964</v>
       </c>
       <c r="C33">
-        <v>0.01700352</v>
+        <v>0.003778559999999999</v>
       </c>
       <c r="D33">
-        <v>0.1203304162709412</v>
+        <v>0.02674009250465359</v>
       </c>
       <c r="E33">
-        <v>0.1253214593102998</v>
+        <v>0.02784921318006662</v>
       </c>
       <c r="F33">
-        <v>0.1023991085263875</v>
+        <v>0.02275535745030838</v>
       </c>
       <c r="G33">
-        <v>0.1245932446040268</v>
+        <v>0.0276873876897837</v>
       </c>
       <c r="H33">
-        <v>0.01971078997936045</v>
+        <v>0.00438017555096899</v>
       </c>
       <c r="I33">
-        <v>1.376785984249701</v>
+        <v>0.3059524409443776</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,28 +1336,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1.055890099198053</v>
+        <v>0.2346422442662341</v>
       </c>
       <c r="C34">
-        <v>0.02550528</v>
+        <v>0.00566784</v>
       </c>
       <c r="D34">
-        <v>0.07520651016933813</v>
+        <v>0.01671255781540848</v>
       </c>
       <c r="E34">
-        <v>0.1148780043677748</v>
+        <v>0.02552844541506106</v>
       </c>
       <c r="F34">
-        <v>0.0892469294496039</v>
+        <v>0.01983265098880086</v>
       </c>
       <c r="G34">
-        <v>0.09061326880292857</v>
+        <v>0.02013628195620636</v>
       </c>
       <c r="H34">
-        <v>0.006570263326453485</v>
+        <v>0.001460058516989663</v>
       </c>
       <c r="I34">
-        <v>1.457910355314152</v>
+        <v>0.3239800789587006</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1365,28 +1365,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1.030928158318666</v>
+        <v>0.2290951462930368</v>
       </c>
       <c r="C35">
-        <v>0.00743904</v>
+        <v>0.00165312</v>
       </c>
       <c r="D35">
-        <v>0.08122303098288519</v>
+        <v>0.01804956244064117</v>
       </c>
       <c r="E35">
-        <v>0.1357649142528247</v>
+        <v>0.03016998094507216</v>
       </c>
       <c r="F35">
-        <v>0.04697206813137043</v>
+        <v>0.01043823736252676</v>
       </c>
       <c r="G35">
-        <v>0.05663329300183031</v>
+        <v>0.01258517622262897</v>
       </c>
       <c r="H35">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I35">
-        <v>1.372101031340484</v>
+        <v>0.3049113402978852</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1394,28 +1394,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>0.9086146480096728</v>
+        <v>0.2019143662243715</v>
       </c>
       <c r="C36">
-        <v>0.01275264</v>
+        <v>0.00283392</v>
       </c>
       <c r="D36">
-        <v>0.05715694772869698</v>
+        <v>0.01270154393971044</v>
       </c>
       <c r="E36">
-        <v>0.1827604614941871</v>
+        <v>0.04061343588759714</v>
       </c>
       <c r="F36">
-        <v>0.03381988905458675</v>
+        <v>0.007515530901019277</v>
       </c>
       <c r="G36">
-        <v>0.09627659810311148</v>
+        <v>0.02139479957846924</v>
       </c>
       <c r="H36">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I36">
-        <v>1.304521711043162</v>
+        <v>0.2898937135651469</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1423,28 +1423,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.7139115091504565</v>
+        <v>0.1586470020334347</v>
       </c>
       <c r="C37">
-        <v>0.00637632</v>
+        <v>0.00141696</v>
       </c>
       <c r="D37">
-        <v>0.04512390610160293</v>
+        <v>0.01002753468924509</v>
       </c>
       <c r="E37">
-        <v>0.1462083691953497</v>
+        <v>0.0324907487100777</v>
       </c>
       <c r="F37">
-        <v>0.03006212360407711</v>
+        <v>0.006680471912017131</v>
       </c>
       <c r="G37">
-        <v>0.0509699637016473</v>
+        <v>0.01132665860036607</v>
       </c>
       <c r="H37">
-        <v>0.006570263326453485</v>
+        <v>0.001460058516989663</v>
       </c>
       <c r="I37">
-        <v>0.9992224550795871</v>
+        <v>0.2220494344621304</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1452,25 +1452,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.5603955727422296</v>
+        <v>0.1245323494982732</v>
       </c>
       <c r="C38">
-        <v>0.00956448</v>
+        <v>0.00212544</v>
       </c>
       <c r="D38">
-        <v>0.04211564569482933</v>
+        <v>0.009359032376628754</v>
       </c>
       <c r="E38">
-        <v>0.1670952790803997</v>
+        <v>0.03713228424008882</v>
       </c>
       <c r="F38">
-        <v>0.01972826861517559</v>
+        <v>0.004384059692261244</v>
       </c>
       <c r="G38">
-        <v>0.03397997580109823</v>
+        <v>0.007551105733577368</v>
       </c>
       <c r="I38">
-        <v>0.8328792219337324</v>
+        <v>0.1850842715408294</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1478,28 +1478,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.368188627970952</v>
+        <v>0.08181969510465606</v>
       </c>
       <c r="C39">
-        <v>0.00425088</v>
+        <v>0.0009446399999999998</v>
       </c>
       <c r="D39">
-        <v>0.01804956244064117</v>
+        <v>0.004011013875698034</v>
       </c>
       <c r="E39">
-        <v>0.09399109448272484</v>
+        <v>0.02088690988504996</v>
       </c>
       <c r="F39">
-        <v>0.01409162043941115</v>
+        <v>0.003131471208758032</v>
       </c>
       <c r="G39">
-        <v>0.03964330510128119</v>
+        <v>0.008809623355840271</v>
       </c>
       <c r="H39">
-        <v>0.006570263326453485</v>
+        <v>0.001460058516989663</v>
       </c>
       <c r="I39">
-        <v>0.5447853537614639</v>
+        <v>0.121063411946992</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.1909588477273075</v>
+        <v>0.0424352994949572</v>
       </c>
       <c r="C40">
-        <v>0.01168992000000001</v>
+        <v>0.002597759999999999</v>
       </c>
       <c r="D40">
-        <v>0.02406608325418819</v>
+        <v>0.005348018500930717</v>
       </c>
       <c r="E40">
-        <v>0.04177381977009992</v>
+        <v>0.009283071060022205</v>
       </c>
       <c r="F40">
-        <v>0.01690994452729338</v>
+        <v>0.003757765450509638</v>
       </c>
       <c r="G40">
-        <v>0.02831664650091515</v>
+        <v>0.006292588111314485</v>
       </c>
       <c r="I40">
-        <v>0.3137152617798041</v>
+        <v>0.06971450261773425</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,22 +1533,22 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.1310501896167798</v>
+        <v>0.02912226435928437</v>
       </c>
       <c r="C41">
-        <v>0.005313599999999998</v>
+        <v>0.0011808</v>
       </c>
       <c r="D41">
-        <v>0.006016520813547048</v>
+        <v>0.001337004625232679</v>
       </c>
       <c r="F41">
-        <v>0.008454972263646688</v>
+        <v>0.001878882725254819</v>
       </c>
       <c r="G41">
-        <v>0.02831664650091515</v>
+        <v>0.006292588111314485</v>
       </c>
       <c r="I41">
-        <v>0.1791519291948887</v>
+        <v>0.03981153982108636</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1556,28 +1556,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.1060882487373931</v>
+        <v>0.02357516638608734</v>
       </c>
       <c r="C42">
-        <v>0.0106272</v>
+        <v>0.0023616</v>
       </c>
       <c r="D42">
-        <v>0.0120330416270941</v>
+        <v>0.002674009250465358</v>
       </c>
       <c r="E42">
-        <v>0.00522172747126249</v>
+        <v>0.001160383882502776</v>
       </c>
       <c r="F42">
-        <v>0.01127329635152891</v>
+        <v>0.002505176967006425</v>
       </c>
       <c r="G42">
-        <v>0.02265331720073214</v>
+        <v>0.005034070489051589</v>
       </c>
       <c r="H42">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I42">
-        <v>0.1810373580409176</v>
+        <v>0.04023052400909282</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1585,22 +1585,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.05866056106655853</v>
+        <v>0.01303568023701301</v>
       </c>
       <c r="C43">
-        <v>0.00318816</v>
+        <v>0.00070848</v>
       </c>
       <c r="D43">
-        <v>0.0120330416270941</v>
+        <v>0.002674009250465358</v>
       </c>
       <c r="F43">
-        <v>0.01221273771415632</v>
+        <v>0.002713941714256961</v>
       </c>
       <c r="G43">
-        <v>0.03964330510128119</v>
+        <v>0.008809623355840271</v>
       </c>
       <c r="I43">
-        <v>0.1257378055090901</v>
+        <v>0.02794173455757559</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1608,25 +1608,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.05741246402258916</v>
+        <v>0.01275832533835315</v>
       </c>
       <c r="C44">
-        <v>0.00318816</v>
+        <v>0.00070848</v>
       </c>
       <c r="D44">
-        <v>0.009024781220320586</v>
+        <v>0.002005506937849017</v>
       </c>
       <c r="E44">
-        <v>0.02088690988504996</v>
+        <v>0.004641535530011102</v>
       </c>
       <c r="F44">
-        <v>0.007515530901019277</v>
+        <v>0.001670117978004283</v>
       </c>
       <c r="G44">
-        <v>0.01132665860036607</v>
+        <v>0.002517035244525795</v>
       </c>
       <c r="I44">
-        <v>0.1093545046293451</v>
+        <v>0.02430100102874334</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1634,25 +1634,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.1497716452763195</v>
+        <v>0.03328258783918213</v>
       </c>
       <c r="C45">
-        <v>0.00106272</v>
+        <v>0.00023616</v>
       </c>
       <c r="D45">
-        <v>0.0120330416270941</v>
+        <v>0.002674009250465358</v>
       </c>
       <c r="E45">
-        <v>0.01044345494252498</v>
+        <v>0.002320767765005551</v>
       </c>
       <c r="F45">
-        <v>0.01221273771415632</v>
+        <v>0.002713941714256961</v>
       </c>
       <c r="G45">
-        <v>0.01132665860036607</v>
+        <v>0.002517035244525795</v>
       </c>
       <c r="I45">
-        <v>0.196850258160461</v>
+        <v>0.0437445018134358</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,25 +1660,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.4318415772133882</v>
+        <v>0.09596479493630854</v>
       </c>
       <c r="C46">
-        <v>0.008501760000000001</v>
+        <v>0.00188928</v>
       </c>
       <c r="D46">
-        <v>0.04512390610160293</v>
+        <v>0.01002753468924509</v>
       </c>
       <c r="E46">
-        <v>0.04699554724136242</v>
+        <v>0.01044345494252498</v>
       </c>
       <c r="F46">
-        <v>0.03945653723035118</v>
+        <v>0.008768119384522488</v>
       </c>
       <c r="G46">
-        <v>0.09061326880292857</v>
+        <v>0.02013628195620636</v>
       </c>
       <c r="I46">
-        <v>0.6625325965896333</v>
+        <v>0.1472294659088074</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1686,28 +1686,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.6839571800951925</v>
+        <v>0.1519904844655985</v>
       </c>
       <c r="C47">
-        <v>0.01487808</v>
+        <v>0.00330624</v>
       </c>
       <c r="D47">
-        <v>0.04813216650837639</v>
+        <v>0.01069603700186143</v>
       </c>
       <c r="E47">
-        <v>0.1827604614941871</v>
+        <v>0.04061343588759714</v>
       </c>
       <c r="F47">
-        <v>0.07045810219705571</v>
+        <v>0.01565735604379017</v>
       </c>
       <c r="G47">
-        <v>0.1868898669060401</v>
+        <v>0.04153108153467559</v>
       </c>
       <c r="H47">
-        <v>0.03285131663226742</v>
+        <v>0.007300292584948317</v>
       </c>
       <c r="I47">
-        <v>1.219927173833119</v>
+        <v>0.2710949275184711</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1715,28 +1715,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>0.9011260657458565</v>
+        <v>0.2002502368324124</v>
       </c>
       <c r="C48">
-        <v>0.00956448</v>
+        <v>0.00212544</v>
       </c>
       <c r="D48">
-        <v>0.07520651016933813</v>
+        <v>0.01671255781540848</v>
       </c>
       <c r="E48">
-        <v>0.1984256439079746</v>
+        <v>0.04409458753510546</v>
       </c>
       <c r="F48">
-        <v>0.07703419173544758</v>
+        <v>0.01711870927454392</v>
       </c>
       <c r="G48">
-        <v>0.1132665860036606</v>
+        <v>0.02517035244525794</v>
       </c>
       <c r="H48">
-        <v>0.01314052665290697</v>
+        <v>0.002920117033979327</v>
       </c>
       <c r="I48">
-        <v>1.387764004215184</v>
+        <v>0.3083920009367075</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1744,28 +1744,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>0.9111108420976112</v>
+        <v>0.2024690760216911</v>
       </c>
       <c r="C49">
-        <v>0.0106272</v>
+        <v>0.0023616</v>
       </c>
       <c r="D49">
-        <v>0.06016520813547058</v>
+        <v>0.01337004625232679</v>
       </c>
       <c r="E49">
-        <v>0.1357649142528247</v>
+        <v>0.03016998094507216</v>
       </c>
       <c r="F49">
-        <v>0.05824536448289939</v>
+        <v>0.01294341432953321</v>
       </c>
       <c r="G49">
-        <v>0.1698998790054909</v>
+        <v>0.03775552866788685</v>
       </c>
       <c r="H49">
-        <v>0.03942157995872091</v>
+        <v>0.00876035110193798</v>
       </c>
       <c r="I49">
-        <v>1.385234987933017</v>
+        <v>0.3078299973184481</v>
       </c>
     </row>
   </sheetData>

--- a/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_SOx.xlsx
+++ b/output/경기동로_W_여름_배출량/경기동로_W_여름_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>0.1786165547369441</v>
+        <v>0.8037744963162483</v>
       </c>
       <c r="C2">
-        <v>0.004959360000000001</v>
+        <v>0.02231712</v>
       </c>
       <c r="D2">
-        <v>0.0240660832541882</v>
+        <v>0.1082973746438469</v>
       </c>
       <c r="E2">
-        <v>0.0324907487100777</v>
+        <v>0.1462083691953497</v>
       </c>
       <c r="F2">
-        <v>0.02296412219755888</v>
+        <v>0.1033385498890149</v>
       </c>
       <c r="G2">
-        <v>0.05034070489051588</v>
+        <v>0.2265331720073212</v>
       </c>
       <c r="H2">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I2">
-        <v>0.3163576908232641</v>
+        <v>1.423609608704688</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,25 +467,25 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>0.2052426250082898</v>
+        <v>0.9235918125373042</v>
       </c>
       <c r="C3">
-        <v>0.005904000000000001</v>
+        <v>0.026568</v>
       </c>
       <c r="D3">
-        <v>0.01604405550279214</v>
+        <v>0.07219824976256468</v>
       </c>
       <c r="E3">
-        <v>0.01856614212004441</v>
+        <v>0.08354763954019984</v>
       </c>
       <c r="F3">
-        <v>0.0288095351205739</v>
+        <v>0.1296429080425826</v>
       </c>
       <c r="G3">
-        <v>0.07802809258029958</v>
+        <v>0.3511264166113478</v>
       </c>
       <c r="I3">
-        <v>0.3525944503319998</v>
+        <v>1.586675026493999</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -493,28 +493,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>0.1672450038918903</v>
+        <v>0.7526025175135057</v>
       </c>
       <c r="C4">
-        <v>0.00425088</v>
+        <v>0.01912896</v>
       </c>
       <c r="D4">
-        <v>0.01270154393971044</v>
+        <v>0.05715694772869698</v>
       </c>
       <c r="E4">
-        <v>0.03133036482757495</v>
+        <v>0.1409866417240872</v>
       </c>
       <c r="F4">
-        <v>0.02254659270305782</v>
+        <v>0.1014596671637602</v>
       </c>
       <c r="G4">
-        <v>0.05159922251277872</v>
+        <v>0.2321965013075044</v>
       </c>
       <c r="H4">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I4">
-        <v>0.2925937249089915</v>
+        <v>1.316671762090462</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -522,28 +522,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>0.1913748800752973</v>
+        <v>0.8611869603388379</v>
       </c>
       <c r="C5">
-        <v>0.00566784</v>
+        <v>0.02550528</v>
       </c>
       <c r="D5">
-        <v>0.01938656706587385</v>
+        <v>0.08723955179643231</v>
       </c>
       <c r="E5">
-        <v>0.02088690988504996</v>
+        <v>0.09399109448272484</v>
       </c>
       <c r="F5">
-        <v>0.02192029846130621</v>
+        <v>0.09864134307587799</v>
       </c>
       <c r="G5">
-        <v>0.03649701104562398</v>
+        <v>0.1642365497053079</v>
       </c>
       <c r="H5">
-        <v>0.005840234067958653</v>
+        <v>0.02628105330581394</v>
       </c>
       <c r="I5">
-        <v>0.3015737406011099</v>
+        <v>1.357081832704995</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -551,28 +551,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>0.1819448135208623</v>
+        <v>0.8187516608438807</v>
       </c>
       <c r="C6">
-        <v>0.007793279999999995</v>
+        <v>0.03506976000000001</v>
       </c>
       <c r="D6">
-        <v>0.01604405550279214</v>
+        <v>0.07219824976256468</v>
       </c>
       <c r="E6">
-        <v>0.01972652600254719</v>
+        <v>0.08876936701146236</v>
       </c>
       <c r="F6">
-        <v>0.02171153371405569</v>
+        <v>0.09770190171325054</v>
       </c>
       <c r="G6">
-        <v>0.04908218726825289</v>
+        <v>0.220869842707138</v>
       </c>
       <c r="H6">
-        <v>0.001460058516989663</v>
+        <v>0.006570263326453485</v>
       </c>
       <c r="I6">
-        <v>0.2977624545254998</v>
+        <v>1.33993104536475</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -580,28 +580,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>0.1783391998382845</v>
+        <v>0.8025263992722788</v>
       </c>
       <c r="C7">
-        <v>0.00448704</v>
+        <v>0.02019168</v>
       </c>
       <c r="D7">
-        <v>0.01270154393971044</v>
+        <v>0.05715694772869698</v>
       </c>
       <c r="E7">
-        <v>0.02668882929756385</v>
+        <v>0.1200997318390372</v>
       </c>
       <c r="F7">
-        <v>0.02442547542831263</v>
+        <v>0.1099146394274069</v>
       </c>
       <c r="G7">
-        <v>0.04530663440146428</v>
+        <v>0.2038798548065892</v>
       </c>
       <c r="H7">
-        <v>0.01314052665290697</v>
+        <v>0.05913236993808137</v>
       </c>
       <c r="I7">
-        <v>0.3050892495582427</v>
+        <v>1.372901623012091</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -609,28 +609,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>0.1719600371691075</v>
+        <v>0.7738201672609846</v>
       </c>
       <c r="C8">
-        <v>0.00684864</v>
+        <v>0.03081888</v>
       </c>
       <c r="D8">
-        <v>0.01337004625232679</v>
+        <v>0.06016520813547058</v>
       </c>
       <c r="E8">
-        <v>0.02320767765005553</v>
+        <v>0.1044345494252497</v>
       </c>
       <c r="F8">
-        <v>0.02317288694480945</v>
+        <v>0.1042779912516425</v>
       </c>
       <c r="G8">
-        <v>0.03775552866788685</v>
+        <v>0.1698998790054909</v>
       </c>
       <c r="H8">
-        <v>0.00438017555096899</v>
+        <v>0.01971078997936045</v>
       </c>
       <c r="I8">
-        <v>0.2806949922351551</v>
+        <v>1.263127465058199</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -638,28 +638,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>0.1927616545685964</v>
+        <v>0.8674274455586849</v>
       </c>
       <c r="C9">
-        <v>0.003778559999999999</v>
+        <v>0.01700352</v>
       </c>
       <c r="D9">
-        <v>0.02674009250465359</v>
+        <v>0.1203304162709412</v>
       </c>
       <c r="E9">
-        <v>0.02784921318006662</v>
+        <v>0.1253214593102998</v>
       </c>
       <c r="F9">
-        <v>0.02275535745030838</v>
+        <v>0.1023991085263875</v>
       </c>
       <c r="G9">
-        <v>0.0276873876897837</v>
+        <v>0.1245932446040268</v>
       </c>
       <c r="H9">
-        <v>0.00438017555096899</v>
+        <v>0.01971078997936045</v>
       </c>
       <c r="I9">
-        <v>0.3059524409443776</v>
+        <v>1.376785984249701</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -667,28 +667,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>0.2346422442662341</v>
+        <v>1.055890099198053</v>
       </c>
       <c r="C10">
-        <v>0.00566784</v>
+        <v>0.02550528</v>
       </c>
       <c r="D10">
-        <v>0.01671255781540848</v>
+        <v>0.07520651016933813</v>
       </c>
       <c r="E10">
-        <v>0.02552844541506106</v>
+        <v>0.1148780043677748</v>
       </c>
       <c r="F10">
-        <v>0.01983265098880086</v>
+        <v>0.0892469294496039</v>
       </c>
       <c r="G10">
-        <v>0.02013628195620636</v>
+        <v>0.09061326880292857</v>
       </c>
       <c r="H10">
-        <v>0.001460058516989663</v>
+        <v>0.006570263326453485</v>
       </c>
       <c r="I10">
-        <v>0.3239800789587006</v>
+        <v>1.457910355314152</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,28 +696,28 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>0.2290951462930368</v>
+        <v>1.030928158318666</v>
       </c>
       <c r="C11">
-        <v>0.00165312</v>
+        <v>0.00743904</v>
       </c>
       <c r="D11">
-        <v>0.01804956244064117</v>
+        <v>0.08122303098288519</v>
       </c>
       <c r="E11">
-        <v>0.03016998094507216</v>
+        <v>0.1357649142528247</v>
       </c>
       <c r="F11">
-        <v>0.01043823736252676</v>
+        <v>0.04697206813137043</v>
       </c>
       <c r="G11">
-        <v>0.01258517622262897</v>
+        <v>0.05663329300183031</v>
       </c>
       <c r="H11">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I11">
-        <v>0.3049113402978852</v>
+        <v>1.372101031340484</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,28 +725,28 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>0.2019143662243715</v>
+        <v>0.9086146480096728</v>
       </c>
       <c r="C12">
-        <v>0.00283392</v>
+        <v>0.01275264</v>
       </c>
       <c r="D12">
-        <v>0.01270154393971044</v>
+        <v>0.05715694772869698</v>
       </c>
       <c r="E12">
-        <v>0.04061343588759714</v>
+        <v>0.1827604614941871</v>
       </c>
       <c r="F12">
-        <v>0.007515530901019277</v>
+        <v>0.03381988905458675</v>
       </c>
       <c r="G12">
-        <v>0.02139479957846924</v>
+        <v>0.09627659810311148</v>
       </c>
       <c r="H12">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I12">
-        <v>0.2898937135651469</v>
+        <v>1.304521711043162</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -754,28 +754,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>0.1586470020334347</v>
+        <v>0.7139115091504565</v>
       </c>
       <c r="C13">
-        <v>0.00141696</v>
+        <v>0.00637632</v>
       </c>
       <c r="D13">
-        <v>0.01002753468924509</v>
+        <v>0.04512390610160293</v>
       </c>
       <c r="E13">
-        <v>0.0324907487100777</v>
+        <v>0.1462083691953497</v>
       </c>
       <c r="F13">
-        <v>0.006680471912017131</v>
+        <v>0.03006212360407711</v>
       </c>
       <c r="G13">
-        <v>0.01132665860036607</v>
+        <v>0.0509699637016473</v>
       </c>
       <c r="H13">
-        <v>0.001460058516989663</v>
+        <v>0.006570263326453485</v>
       </c>
       <c r="I13">
-        <v>0.2220494344621304</v>
+        <v>0.9992224550795871</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -783,25 +783,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>0.1245323494982732</v>
+        <v>0.5603955727422296</v>
       </c>
       <c r="C14">
-        <v>0.00212544</v>
+        <v>0.00956448</v>
       </c>
       <c r="D14">
-        <v>0.009359032376628754</v>
+        <v>0.04211564569482933</v>
       </c>
       <c r="E14">
-        <v>0.03713228424008882</v>
+        <v>0.1670952790803997</v>
       </c>
       <c r="F14">
-        <v>0.004384059692261244</v>
+        <v>0.01972826861517559</v>
       </c>
       <c r="G14">
-        <v>0.007551105733577368</v>
+        <v>0.03397997580109823</v>
       </c>
       <c r="I14">
-        <v>0.1850842715408294</v>
+        <v>0.8328792219337324</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -809,28 +809,28 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>0.08181969510465606</v>
+        <v>0.368188627970952</v>
       </c>
       <c r="C15">
-        <v>0.0009446399999999998</v>
+        <v>0.00425088</v>
       </c>
       <c r="D15">
-        <v>0.004011013875698034</v>
+        <v>0.01804956244064117</v>
       </c>
       <c r="E15">
-        <v>0.02088690988504996</v>
+        <v>0.09399109448272484</v>
       </c>
       <c r="F15">
-        <v>0.003131471208758032</v>
+        <v>0.01409162043941115</v>
       </c>
       <c r="G15">
-        <v>0.008809623355840271</v>
+        <v>0.03964330510128119</v>
       </c>
       <c r="H15">
-        <v>0.001460058516989663</v>
+        <v>0.006570263326453485</v>
       </c>
       <c r="I15">
-        <v>0.121063411946992</v>
+        <v>0.5447853537614639</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -838,25 +838,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>0.0424352994949572</v>
+        <v>0.1909588477273075</v>
       </c>
       <c r="C16">
-        <v>0.002597759999999999</v>
+        <v>0.01168992000000001</v>
       </c>
       <c r="D16">
-        <v>0.005348018500930717</v>
+        <v>0.02406608325418819</v>
       </c>
       <c r="E16">
-        <v>0.009283071060022205</v>
+        <v>0.04177381977009992</v>
       </c>
       <c r="F16">
-        <v>0.003757765450509638</v>
+        <v>0.01690994452729338</v>
       </c>
       <c r="G16">
-        <v>0.006292588111314485</v>
+        <v>0.02831664650091515</v>
       </c>
       <c r="I16">
-        <v>0.06971450261773425</v>
+        <v>0.3137152617798041</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -864,22 +864,22 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>0.02912226435928437</v>
+        <v>0.1310501896167798</v>
       </c>
       <c r="C17">
-        <v>0.0011808</v>
+        <v>0.005313599999999998</v>
       </c>
       <c r="D17">
-        <v>0.001337004625232679</v>
+        <v>0.006016520813547048</v>
       </c>
       <c r="F17">
-        <v>0.001878882725254819</v>
+        <v>0.008454972263646688</v>
       </c>
       <c r="G17">
-        <v>0.006292588111314485</v>
+        <v>0.02831664650091515</v>
       </c>
       <c r="I17">
-        <v>0.03981153982108636</v>
+        <v>0.1791519291948887</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -887,28 +887,28 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>0.02357516638608734</v>
+        <v>0.1060882487373931</v>
       </c>
       <c r="C18">
-        <v>0.0023616</v>
+        <v>0.0106272</v>
       </c>
       <c r="D18">
-        <v>0.002674009250465358</v>
+        <v>0.0120330416270941</v>
       </c>
       <c r="E18">
-        <v>0.001160383882502776</v>
+        <v>0.00522172747126249</v>
       </c>
       <c r="F18">
-        <v>0.002505176967006425</v>
+        <v>0.01127329635152891</v>
       </c>
       <c r="G18">
-        <v>0.005034070489051589</v>
+        <v>0.02265331720073214</v>
       </c>
       <c r="H18">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I18">
-        <v>0.04023052400909282</v>
+        <v>0.1810373580409176</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -916,22 +916,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>0.01303568023701301</v>
+        <v>0.05866056106655853</v>
       </c>
       <c r="C19">
-        <v>0.00070848</v>
+        <v>0.00318816</v>
       </c>
       <c r="D19">
-        <v>0.002674009250465358</v>
+        <v>0.0120330416270941</v>
       </c>
       <c r="F19">
-        <v>0.002713941714256961</v>
+        <v>0.01221273771415632</v>
       </c>
       <c r="G19">
-        <v>0.008809623355840271</v>
+        <v>0.03964330510128119</v>
       </c>
       <c r="I19">
-        <v>0.02794173455757559</v>
+        <v>0.1257378055090901</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -939,25 +939,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>0.01275832533835315</v>
+        <v>0.05741246402258916</v>
       </c>
       <c r="C20">
-        <v>0.00070848</v>
+        <v>0.00318816</v>
       </c>
       <c r="D20">
-        <v>0.002005506937849017</v>
+        <v>0.009024781220320586</v>
       </c>
       <c r="E20">
-        <v>0.004641535530011102</v>
+        <v>0.02088690988504996</v>
       </c>
       <c r="F20">
-        <v>0.001670117978004283</v>
+        <v>0.007515530901019277</v>
       </c>
       <c r="G20">
-        <v>0.002517035244525795</v>
+        <v>0.01132665860036607</v>
       </c>
       <c r="I20">
-        <v>0.02430100102874334</v>
+        <v>0.1093545046293451</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -965,25 +965,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>0.03328258783918213</v>
+        <v>0.1497716452763195</v>
       </c>
       <c r="C21">
-        <v>0.00023616</v>
+        <v>0.00106272</v>
       </c>
       <c r="D21">
-        <v>0.002674009250465358</v>
+        <v>0.0120330416270941</v>
       </c>
       <c r="E21">
-        <v>0.002320767765005551</v>
+        <v>0.01044345494252498</v>
       </c>
       <c r="F21">
-        <v>0.002713941714256961</v>
+        <v>0.01221273771415632</v>
       </c>
       <c r="G21">
-        <v>0.002517035244525795</v>
+        <v>0.01132665860036607</v>
       </c>
       <c r="I21">
-        <v>0.0437445018134358</v>
+        <v>0.196850258160461</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -991,25 +991,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>0.09596479493630854</v>
+        <v>0.4318415772133882</v>
       </c>
       <c r="C22">
-        <v>0.00188928</v>
+        <v>0.008501760000000001</v>
       </c>
       <c r="D22">
-        <v>0.01002753468924509</v>
+        <v>0.04512390610160293</v>
       </c>
       <c r="E22">
-        <v>0.01044345494252498</v>
+        <v>0.04699554724136242</v>
       </c>
       <c r="F22">
-        <v>0.008768119384522488</v>
+        <v>0.03945653723035118</v>
       </c>
       <c r="G22">
-        <v>0.02013628195620636</v>
+        <v>0.09061326880292857</v>
       </c>
       <c r="I22">
-        <v>0.1472294659088074</v>
+        <v>0.6625325965896333</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>0.1519904844655985</v>
+        <v>0.6839571800951925</v>
       </c>
       <c r="C23">
-        <v>0.00330624</v>
+        <v>0.01487808</v>
       </c>
       <c r="D23">
-        <v>0.01069603700186143</v>
+        <v>0.04813216650837639</v>
       </c>
       <c r="E23">
-        <v>0.04061343588759714</v>
+        <v>0.1827604614941871</v>
       </c>
       <c r="F23">
-        <v>0.01565735604379017</v>
+        <v>0.07045810219705571</v>
       </c>
       <c r="G23">
-        <v>0.04153108153467559</v>
+        <v>0.1868898669060401</v>
       </c>
       <c r="H23">
-        <v>0.007300292584948317</v>
+        <v>0.03285131663226742</v>
       </c>
       <c r="I23">
-        <v>0.2710949275184711</v>
+        <v>1.219927173833119</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>0.2002502368324124</v>
+        <v>0.9011260657458565</v>
       </c>
       <c r="C24">
-        <v>0.00212544</v>
+        <v>0.00956448</v>
       </c>
       <c r="D24">
-        <v>0.01671255781540848</v>
+        <v>0.07520651016933813</v>
       </c>
       <c r="E24">
-        <v>0.04409458753510546</v>
+        <v>0.1984256439079746</v>
       </c>
       <c r="F24">
-        <v>0.01711870927454392</v>
+        <v>0.07703419173544758</v>
       </c>
       <c r="G24">
-        <v>0.02517035244525794</v>
+        <v>0.1132665860036606</v>
       </c>
       <c r="H24">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I24">
-        <v>0.3083920009367075</v>
+        <v>1.387764004215184</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>0.2024690760216911</v>
+        <v>0.9111108420976112</v>
       </c>
       <c r="C25">
-        <v>0.0023616</v>
+        <v>0.0106272</v>
       </c>
       <c r="D25">
-        <v>0.01337004625232679</v>
+        <v>0.06016520813547058</v>
       </c>
       <c r="E25">
-        <v>0.03016998094507216</v>
+        <v>0.1357649142528247</v>
       </c>
       <c r="F25">
-        <v>0.01294341432953321</v>
+        <v>0.05824536448289939</v>
       </c>
       <c r="G25">
-        <v>0.03775552866788685</v>
+        <v>0.1698998790054909</v>
       </c>
       <c r="H25">
-        <v>0.00876035110193798</v>
+        <v>0.03942157995872091</v>
       </c>
       <c r="I25">
-        <v>0.3078299973184481</v>
+        <v>1.385234987933017</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>0.1786165547369441</v>
+        <v>0.8037744963162483</v>
       </c>
       <c r="C26">
-        <v>0.004959360000000001</v>
+        <v>0.02231712</v>
       </c>
       <c r="D26">
-        <v>0.0240660832541882</v>
+        <v>0.1082973746438469</v>
       </c>
       <c r="E26">
-        <v>0.0324907487100777</v>
+        <v>0.1462083691953497</v>
       </c>
       <c r="F26">
-        <v>0.02296412219755888</v>
+        <v>0.1033385498890149</v>
       </c>
       <c r="G26">
-        <v>0.05034070489051588</v>
+        <v>0.2265331720073212</v>
       </c>
       <c r="H26">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I26">
-        <v>0.3163576908232641</v>
+        <v>1.423609608704688</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>0.1542093236548773</v>
+        <v>0.6939419564469471</v>
       </c>
       <c r="C27">
-        <v>0.004959360000000001</v>
+        <v>0.02231712</v>
       </c>
       <c r="D27">
-        <v>0.01738106012802482</v>
+        <v>0.07821477057611168</v>
       </c>
       <c r="E27">
-        <v>0.01972652600254719</v>
+        <v>0.08876936701146236</v>
       </c>
       <c r="F27">
-        <v>0.02693065239531907</v>
+        <v>0.1211879357789358</v>
       </c>
       <c r="G27">
-        <v>0.03523849342336108</v>
+        <v>0.1585732204051248</v>
       </c>
       <c r="H27">
-        <v>0.001460058516989663</v>
+        <v>0.006570263326453485</v>
       </c>
       <c r="I27">
-        <v>0.2599054741211191</v>
+        <v>1.169574633545035</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>0.1750109410543661</v>
+        <v>0.7875492347446478</v>
       </c>
       <c r="C28">
-        <v>0.00684864</v>
+        <v>0.03081888</v>
       </c>
       <c r="D28">
-        <v>0.01738106012802482</v>
+        <v>0.07821477057611168</v>
       </c>
       <c r="E28">
-        <v>0.02668882929756385</v>
+        <v>0.1200997318390372</v>
       </c>
       <c r="F28">
-        <v>0.02087647472505353</v>
+        <v>0.09394413626274085</v>
       </c>
       <c r="G28">
-        <v>0.05034070489051588</v>
+        <v>0.2265331720073212</v>
       </c>
       <c r="H28">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I28">
-        <v>0.3000667671295035</v>
+        <v>1.350300452082766</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>0.1594790667294144</v>
+        <v>0.7176558002823646</v>
       </c>
       <c r="C29">
-        <v>0.005904000000000001</v>
+        <v>0.026568</v>
       </c>
       <c r="D29">
-        <v>0.01871806475325751</v>
+        <v>0.08423129138965865</v>
       </c>
       <c r="E29">
-        <v>0.01972652600254719</v>
+        <v>0.08876936701146236</v>
       </c>
       <c r="F29">
-        <v>0.01711870927454392</v>
+        <v>0.07703419173544758</v>
       </c>
       <c r="G29">
-        <v>0.02139479957846924</v>
+        <v>0.09627659810311148</v>
       </c>
       <c r="H29">
-        <v>0.00438017555096899</v>
+        <v>0.01971078997936045</v>
       </c>
       <c r="I29">
-        <v>0.2467213418892012</v>
+        <v>1.110246038501405</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>0.1611431961213735</v>
+        <v>0.7251443825461801</v>
       </c>
       <c r="C30">
-        <v>0.003542400000000002</v>
+        <v>0.01594079999999999</v>
       </c>
       <c r="D30">
-        <v>0.01671255781540848</v>
+        <v>0.07520651016933813</v>
       </c>
       <c r="E30">
-        <v>0.01740575823754164</v>
+        <v>0.07832591206893737</v>
       </c>
       <c r="F30">
-        <v>0.02087647472505353</v>
+        <v>0.09394413626274085</v>
       </c>
       <c r="G30">
-        <v>0.04153108153467559</v>
+        <v>0.1868898669060401</v>
       </c>
       <c r="H30">
-        <v>0.005840234067958653</v>
+        <v>0.02628105330581394</v>
       </c>
       <c r="I30">
-        <v>0.2670517025020113</v>
+        <v>1.20173266125905</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>0.1616979059186931</v>
+        <v>0.7276405766341186</v>
       </c>
       <c r="C31">
-        <v>0.0047232</v>
+        <v>0.02125439999999999</v>
       </c>
       <c r="D31">
-        <v>0.02139207400372287</v>
+        <v>0.09626433301675277</v>
       </c>
       <c r="E31">
-        <v>0.01856614212004441</v>
+        <v>0.08354763954019984</v>
       </c>
       <c r="F31">
-        <v>0.02442547542831263</v>
+        <v>0.1099146394274069</v>
       </c>
       <c r="G31">
-        <v>0.02642887006752082</v>
+        <v>0.1189299153038437</v>
       </c>
       <c r="H31">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I31">
-        <v>0.2601537845722732</v>
+        <v>1.170692030575229</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,28 +1278,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>0.1691864881825092</v>
+        <v>0.7613391968212911</v>
       </c>
       <c r="C32">
-        <v>0.005431679999999999</v>
+        <v>0.02444256</v>
       </c>
       <c r="D32">
-        <v>0.01671255781540848</v>
+        <v>0.07520651016933813</v>
       </c>
       <c r="E32">
-        <v>0.02436806153255829</v>
+        <v>0.1096562768965122</v>
       </c>
       <c r="F32">
-        <v>0.02442547542831263</v>
+        <v>0.1099146394274069</v>
       </c>
       <c r="G32">
-        <v>0.02894590531204662</v>
+        <v>0.1302565739042098</v>
       </c>
       <c r="H32">
-        <v>0.00438017555096899</v>
+        <v>0.01971078997936045</v>
       </c>
       <c r="I32">
-        <v>0.2734503438218042</v>
+        <v>1.230526547198119</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1307,28 +1307,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>0.1927616545685964</v>
+        <v>0.8674274455586849</v>
       </c>
       <c r="C33">
-        <v>0.003778559999999999</v>
+        <v>0.01700352</v>
       </c>
       <c r="D33">
-        <v>0.02674009250465359</v>
+        <v>0.1203304162709412</v>
       </c>
       <c r="E33">
-        <v>0.02784921318006662</v>
+        <v>0.1253214593102998</v>
       </c>
       <c r="F33">
-        <v>0.02275535745030838</v>
+        <v>0.1023991085263875</v>
       </c>
       <c r="G33">
-        <v>0.0276873876897837</v>
+        <v>0.1245932446040268</v>
       </c>
       <c r="H33">
-        <v>0.00438017555096899</v>
+        <v>0.01971078997936045</v>
       </c>
       <c r="I33">
-        <v>0.3059524409443776</v>
+        <v>1.376785984249701</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1336,28 +1336,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>0.2346422442662341</v>
+        <v>1.055890099198053</v>
       </c>
       <c r="C34">
-        <v>0.00566784</v>
+        <v>0.02550528</v>
       </c>
       <c r="D34">
-        <v>0.01671255781540848</v>
+        <v>0.07520651016933813</v>
       </c>
       <c r="E34">
-        <v>0.02552844541506106</v>
+        <v>0.1148780043677748</v>
       </c>
       <c r="F34">
-        <v>0.01983265098880086</v>
+        <v>0.0892469294496039</v>
       </c>
       <c r="G34">
-        <v>0.02013628195620636</v>
+        <v>0.09061326880292857</v>
       </c>
       <c r="H34">
-        <v>0.001460058516989663</v>
+        <v>0.006570263326453485</v>
       </c>
       <c r="I34">
-        <v>0.3239800789587006</v>
+        <v>1.457910355314152</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1365,28 +1365,28 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>0.2290951462930368</v>
+        <v>1.030928158318666</v>
       </c>
       <c r="C35">
-        <v>0.00165312</v>
+        <v>0.00743904</v>
       </c>
       <c r="D35">
-        <v>0.01804956244064117</v>
+        <v>0.08122303098288519</v>
       </c>
       <c r="E35">
-        <v>0.03016998094507216</v>
+        <v>0.1357649142528247</v>
       </c>
       <c r="F35">
-        <v>0.01043823736252676</v>
+        <v>0.04697206813137043</v>
       </c>
       <c r="G35">
-        <v>0.01258517622262897</v>
+        <v>0.05663329300183031</v>
       </c>
       <c r="H35">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I35">
-        <v>0.3049113402978852</v>
+        <v>1.372101031340484</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1394,28 +1394,28 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>0.2019143662243715</v>
+        <v>0.9086146480096728</v>
       </c>
       <c r="C36">
-        <v>0.00283392</v>
+        <v>0.01275264</v>
       </c>
       <c r="D36">
-        <v>0.01270154393971044</v>
+        <v>0.05715694772869698</v>
       </c>
       <c r="E36">
-        <v>0.04061343588759714</v>
+        <v>0.1827604614941871</v>
       </c>
       <c r="F36">
-        <v>0.007515530901019277</v>
+        <v>0.03381988905458675</v>
       </c>
       <c r="G36">
-        <v>0.02139479957846924</v>
+        <v>0.09627659810311148</v>
       </c>
       <c r="H36">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I36">
-        <v>0.2898937135651469</v>
+        <v>1.304521711043162</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1423,28 +1423,28 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>0.1586470020334347</v>
+        <v>0.7139115091504565</v>
       </c>
       <c r="C37">
-        <v>0.00141696</v>
+        <v>0.00637632</v>
       </c>
       <c r="D37">
-        <v>0.01002753468924509</v>
+        <v>0.04512390610160293</v>
       </c>
       <c r="E37">
-        <v>0.0324907487100777</v>
+        <v>0.1462083691953497</v>
       </c>
       <c r="F37">
-        <v>0.006680471912017131</v>
+        <v>0.03006212360407711</v>
       </c>
       <c r="G37">
-        <v>0.01132665860036607</v>
+        <v>0.0509699637016473</v>
       </c>
       <c r="H37">
-        <v>0.001460058516989663</v>
+        <v>0.006570263326453485</v>
       </c>
       <c r="I37">
-        <v>0.2220494344621304</v>
+        <v>0.9992224550795871</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1452,25 +1452,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>0.1245323494982732</v>
+        <v>0.5603955727422296</v>
       </c>
       <c r="C38">
-        <v>0.00212544</v>
+        <v>0.00956448</v>
       </c>
       <c r="D38">
-        <v>0.009359032376628754</v>
+        <v>0.04211564569482933</v>
       </c>
       <c r="E38">
-        <v>0.03713228424008882</v>
+        <v>0.1670952790803997</v>
       </c>
       <c r="F38">
-        <v>0.004384059692261244</v>
+        <v>0.01972826861517559</v>
       </c>
       <c r="G38">
-        <v>0.007551105733577368</v>
+        <v>0.03397997580109823</v>
       </c>
       <c r="I38">
-        <v>0.1850842715408294</v>
+        <v>0.8328792219337324</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1478,28 +1478,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>0.08181969510465606</v>
+        <v>0.368188627970952</v>
       </c>
       <c r="C39">
-        <v>0.0009446399999999998</v>
+        <v>0.00425088</v>
       </c>
       <c r="D39">
-        <v>0.004011013875698034</v>
+        <v>0.01804956244064117</v>
       </c>
       <c r="E39">
-        <v>0.02088690988504996</v>
+        <v>0.09399109448272484</v>
       </c>
       <c r="F39">
-        <v>0.003131471208758032</v>
+        <v>0.01409162043941115</v>
       </c>
       <c r="G39">
-        <v>0.008809623355840271</v>
+        <v>0.03964330510128119</v>
       </c>
       <c r="H39">
-        <v>0.001460058516989663</v>
+        <v>0.006570263326453485</v>
       </c>
       <c r="I39">
-        <v>0.121063411946992</v>
+        <v>0.5447853537614639</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1507,25 +1507,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>0.0424352994949572</v>
+        <v>0.1909588477273075</v>
       </c>
       <c r="C40">
-        <v>0.002597759999999999</v>
+        <v>0.01168992000000001</v>
       </c>
       <c r="D40">
-        <v>0.005348018500930717</v>
+        <v>0.02406608325418819</v>
       </c>
       <c r="E40">
-        <v>0.009283071060022205</v>
+        <v>0.04177381977009992</v>
       </c>
       <c r="F40">
-        <v>0.003757765450509638</v>
+        <v>0.01690994452729338</v>
       </c>
       <c r="G40">
-        <v>0.006292588111314485</v>
+        <v>0.02831664650091515</v>
       </c>
       <c r="I40">
-        <v>0.06971450261773425</v>
+        <v>0.3137152617798041</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,22 +1533,22 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>0.02912226435928437</v>
+        <v>0.1310501896167798</v>
       </c>
       <c r="C41">
-        <v>0.0011808</v>
+        <v>0.005313599999999998</v>
       </c>
       <c r="D41">
-        <v>0.001337004625232679</v>
+        <v>0.006016520813547048</v>
       </c>
       <c r="F41">
-        <v>0.001878882725254819</v>
+        <v>0.008454972263646688</v>
       </c>
       <c r="G41">
-        <v>0.006292588111314485</v>
+        <v>0.02831664650091515</v>
       </c>
       <c r="I41">
-        <v>0.03981153982108636</v>
+        <v>0.1791519291948887</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1556,28 +1556,28 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>0.02357516638608734</v>
+        <v>0.1060882487373931</v>
       </c>
       <c r="C42">
-        <v>0.0023616</v>
+        <v>0.0106272</v>
       </c>
       <c r="D42">
-        <v>0.002674009250465358</v>
+        <v>0.0120330416270941</v>
       </c>
       <c r="E42">
-        <v>0.001160383882502776</v>
+        <v>0.00522172747126249</v>
       </c>
       <c r="F42">
-        <v>0.002505176967006425</v>
+        <v>0.01127329635152891</v>
       </c>
       <c r="G42">
-        <v>0.005034070489051589</v>
+        <v>0.02265331720073214</v>
       </c>
       <c r="H42">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I42">
-        <v>0.04023052400909282</v>
+        <v>0.1810373580409176</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1585,22 +1585,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>0.01303568023701301</v>
+        <v>0.05866056106655853</v>
       </c>
       <c r="C43">
-        <v>0.00070848</v>
+        <v>0.00318816</v>
       </c>
       <c r="D43">
-        <v>0.002674009250465358</v>
+        <v>0.0120330416270941</v>
       </c>
       <c r="F43">
-        <v>0.002713941714256961</v>
+        <v>0.01221273771415632</v>
       </c>
       <c r="G43">
-        <v>0.008809623355840271</v>
+        <v>0.03964330510128119</v>
       </c>
       <c r="I43">
-        <v>0.02794173455757559</v>
+        <v>0.1257378055090901</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1608,25 +1608,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>0.01275832533835315</v>
+        <v>0.05741246402258916</v>
       </c>
       <c r="C44">
-        <v>0.00070848</v>
+        <v>0.00318816</v>
       </c>
       <c r="D44">
-        <v>0.002005506937849017</v>
+        <v>0.009024781220320586</v>
       </c>
       <c r="E44">
-        <v>0.004641535530011102</v>
+        <v>0.02088690988504996</v>
       </c>
       <c r="F44">
-        <v>0.001670117978004283</v>
+        <v>0.007515530901019277</v>
       </c>
       <c r="G44">
-        <v>0.002517035244525795</v>
+        <v>0.01132665860036607</v>
       </c>
       <c r="I44">
-        <v>0.02430100102874334</v>
+        <v>0.1093545046293451</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1634,25 +1634,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>0.03328258783918213</v>
+        <v>0.1497716452763195</v>
       </c>
       <c r="C45">
-        <v>0.00023616</v>
+        <v>0.00106272</v>
       </c>
       <c r="D45">
-        <v>0.002674009250465358</v>
+        <v>0.0120330416270941</v>
       </c>
       <c r="E45">
-        <v>0.002320767765005551</v>
+        <v>0.01044345494252498</v>
       </c>
       <c r="F45">
-        <v>0.002713941714256961</v>
+        <v>0.01221273771415632</v>
       </c>
       <c r="G45">
-        <v>0.002517035244525795</v>
+        <v>0.01132665860036607</v>
       </c>
       <c r="I45">
-        <v>0.0437445018134358</v>
+        <v>0.196850258160461</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1660,25 +1660,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>0.09596479493630854</v>
+        <v>0.4318415772133882</v>
       </c>
       <c r="C46">
-        <v>0.00188928</v>
+        <v>0.008501760000000001</v>
       </c>
       <c r="D46">
-        <v>0.01002753468924509</v>
+        <v>0.04512390610160293</v>
       </c>
       <c r="E46">
-        <v>0.01044345494252498</v>
+        <v>0.04699554724136242</v>
       </c>
       <c r="F46">
-        <v>0.008768119384522488</v>
+        <v>0.03945653723035118</v>
       </c>
       <c r="G46">
-        <v>0.02013628195620636</v>
+        <v>0.09061326880292857</v>
       </c>
       <c r="I46">
-        <v>0.1472294659088074</v>
+        <v>0.6625325965896333</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1686,28 +1686,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>0.1519904844655985</v>
+        <v>0.6839571800951925</v>
       </c>
       <c r="C47">
-        <v>0.00330624</v>
+        <v>0.01487808</v>
       </c>
       <c r="D47">
-        <v>0.01069603700186143</v>
+        <v>0.04813216650837639</v>
       </c>
       <c r="E47">
-        <v>0.04061343588759714</v>
+        <v>0.1827604614941871</v>
       </c>
       <c r="F47">
-        <v>0.01565735604379017</v>
+        <v>0.07045810219705571</v>
       </c>
       <c r="G47">
-        <v>0.04153108153467559</v>
+        <v>0.1868898669060401</v>
       </c>
       <c r="H47">
-        <v>0.007300292584948317</v>
+        <v>0.03285131663226742</v>
       </c>
       <c r="I47">
-        <v>0.2710949275184711</v>
+        <v>1.219927173833119</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1715,28 +1715,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>0.2002502368324124</v>
+        <v>0.9011260657458565</v>
       </c>
       <c r="C48">
-        <v>0.00212544</v>
+        <v>0.00956448</v>
       </c>
       <c r="D48">
-        <v>0.01671255781540848</v>
+        <v>0.07520651016933813</v>
       </c>
       <c r="E48">
-        <v>0.04409458753510546</v>
+        <v>0.1984256439079746</v>
       </c>
       <c r="F48">
-        <v>0.01711870927454392</v>
+        <v>0.07703419173544758</v>
       </c>
       <c r="G48">
-        <v>0.02517035244525794</v>
+        <v>0.1132665860036606</v>
       </c>
       <c r="H48">
-        <v>0.002920117033979327</v>
+        <v>0.01314052665290697</v>
       </c>
       <c r="I48">
-        <v>0.3083920009367075</v>
+        <v>1.387764004215184</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1744,28 +1744,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>0.2024690760216911</v>
+        <v>0.9111108420976112</v>
       </c>
       <c r="C49">
-        <v>0.0023616</v>
+        <v>0.0106272</v>
       </c>
       <c r="D49">
-        <v>0.01337004625232679</v>
+        <v>0.06016520813547058</v>
       </c>
       <c r="E49">
-        <v>0.03016998094507216</v>
+        <v>0.1357649142528247</v>
       </c>
       <c r="F49">
-        <v>0.01294341432953321</v>
+        <v>0.05824536448289939</v>
       </c>
       <c r="G49">
-        <v>0.03775552866788685</v>
+        <v>0.1698998790054909</v>
       </c>
       <c r="H49">
-        <v>0.00876035110193798</v>
+        <v>0.03942157995872091</v>
       </c>
       <c r="I49">
-        <v>0.3078299973184481</v>
+        <v>1.385234987933017</v>
       </c>
     </row>
   </sheetData>
